--- a/pesantren/bagian bahasa/lembar evaluasi.xlsx
+++ b/pesantren/bagian bahasa/lembar evaluasi.xlsx
@@ -3,14 +3,22 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20402"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1482371D-51F5-40DA-9573-7886E65BE00B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B0F81D0-2765-4D2A-BDE8-5FB40D8C8C02}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ringkasan" sheetId="1" r:id="rId1"/>
     <sheet name="mufrodat wajib" sheetId="2" r:id="rId2"/>
+    <sheet name="mufrodat harian dan islah" sheetId="3" r:id="rId3"/>
+    <sheet name="wajib bahasa" sheetId="4" r:id="rId4"/>
+    <sheet name="evaluasi" sheetId="5" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'mufrodat wajib'!$A$1:$E$10</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">ringkasan!$A$1:$AF$45</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'wajib bahasa'!$A$1:$E$6</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -21,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
   <si>
     <t>Bulan</t>
   </si>
@@ -67,13 +75,36 @@
   <si>
     <t>Lembar Evaluasi Program-Program Bahasa Selama Sebulan</t>
   </si>
+  <si>
+    <t>Putra / Putri</t>
+  </si>
+  <si>
+    <t>bahasa-mabaiz.github.io</t>
+  </si>
+  <si>
+    <t>Pelanggaran Mufrodat Wajib</t>
+  </si>
+  <si>
+    <t>Pelanggaran Mufrodat Harian</t>
+  </si>
+  <si>
+    <t>Pelanggaran Islah</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -89,7 +120,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -112,15 +143,211 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -402,44 +629,1837 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:AF45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:AF45"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="7" width="7.140625" customWidth="1"/>
-    <col min="8" max="8" width="3.42578125" customWidth="1"/>
-    <col min="9" max="15" width="7.140625" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" customWidth="1"/>
+    <col min="2" max="32" width="3.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="13"/>
+      <c r="X1" s="13"/>
+      <c r="Y1" s="13"/>
+      <c r="Z1" s="13"/>
+      <c r="AA1" s="13"/>
+      <c r="AB1" s="13"/>
+      <c r="AC1" s="13"/>
+      <c r="AD1" s="13"/>
+      <c r="AE1" s="13"/>
+      <c r="AF1" s="13"/>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="16"/>
+      <c r="U2" s="16"/>
+      <c r="V2" s="16"/>
+      <c r="W2" s="16"/>
+      <c r="X2" s="16"/>
+      <c r="Y2" s="16"/>
+      <c r="Z2" s="16"/>
+      <c r="AA2" s="16"/>
+      <c r="AB2" s="16"/>
+      <c r="AC2" s="16"/>
+      <c r="AD2" s="16"/>
+      <c r="AE2" s="16"/>
+      <c r="AF2" s="16"/>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="AC3" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD3" s="17"/>
+      <c r="AE3" s="17"/>
+      <c r="AF3" s="17"/>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
         <v>9</v>
       </c>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="13"/>
+      <c r="V5" s="13"/>
+      <c r="W5" s="13"/>
+      <c r="X5" s="13"/>
+      <c r="Y5" s="13"/>
+      <c r="Z5" s="13"/>
+      <c r="AA5" s="13"/>
+      <c r="AB5" s="13"/>
+      <c r="AC5" s="13"/>
+      <c r="AD5" s="13"/>
+      <c r="AE5" s="13"/>
+      <c r="AF5" s="13"/>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="18"/>
+      <c r="U6" s="18"/>
+      <c r="V6" s="18"/>
+      <c r="W6" s="18"/>
+      <c r="X6" s="18"/>
+      <c r="Y6" s="18"/>
+      <c r="Z6" s="18"/>
+      <c r="AA6" s="18"/>
+      <c r="AB6" s="18"/>
+      <c r="AC6" s="18"/>
+      <c r="AD6" s="18"/>
+      <c r="AE6" s="18"/>
+      <c r="AF6" s="18"/>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="16"/>
+      <c r="S7" s="16"/>
+      <c r="T7" s="16"/>
+      <c r="U7" s="16"/>
+      <c r="V7" s="16"/>
+      <c r="W7" s="16"/>
+      <c r="X7" s="16"/>
+      <c r="Y7" s="16"/>
+      <c r="Z7" s="16"/>
+      <c r="AA7" s="16"/>
+      <c r="AB7" s="16"/>
+      <c r="AC7" s="16"/>
+      <c r="AD7" s="16"/>
+      <c r="AE7" s="16"/>
+      <c r="AF7" s="16"/>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B9" s="9">
+        <v>1</v>
+      </c>
+      <c r="C9" s="9">
+        <f t="shared" ref="C9:AF9" si="0">B9+1</f>
+        <v>2</v>
+      </c>
+      <c r="D9" s="9">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E9" s="9">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F9" s="9">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G9" s="9">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H9" s="9">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="I9" s="9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="J9" s="9">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="K9" s="9">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="L9" s="9">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="M9" s="9">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="N9" s="9">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="O9" s="9">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="P9" s="9">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="Q9" s="9">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="R9" s="9">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="S9" s="9">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="T9" s="9">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="U9" s="9">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="V9" s="9">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="W9" s="9">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="X9" s="9">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="Y9" s="9">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="Z9" s="9">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="AA9" s="9">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="AB9" s="9">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="AC9" s="9">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="AD9" s="9">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="AE9" s="9">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="AF9" s="9">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3"/>
+      <c r="AA10" s="3"/>
+      <c r="AB10" s="3"/>
+      <c r="AC10" s="3"/>
+      <c r="AD10" s="3"/>
+      <c r="AE10" s="3"/>
+      <c r="AF10" s="4"/>
+    </row>
+    <row r="11" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="2"/>
+      <c r="Y11" s="2"/>
+      <c r="Z11" s="2"/>
+      <c r="AA11" s="2"/>
+      <c r="AB11" s="2"/>
+      <c r="AC11" s="2"/>
+      <c r="AD11" s="2"/>
+      <c r="AE11" s="2"/>
+      <c r="AF11" s="5"/>
+    </row>
+    <row r="12" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="2"/>
+      <c r="Y12" s="2"/>
+      <c r="Z12" s="2"/>
+      <c r="AA12" s="2"/>
+      <c r="AB12" s="2"/>
+      <c r="AC12" s="2"/>
+      <c r="AD12" s="2"/>
+      <c r="AE12" s="2"/>
+      <c r="AF12" s="5"/>
+    </row>
+    <row r="13" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="2"/>
+      <c r="X13" s="2"/>
+      <c r="Y13" s="2"/>
+      <c r="Z13" s="2"/>
+      <c r="AA13" s="2"/>
+      <c r="AB13" s="2"/>
+      <c r="AC13" s="2"/>
+      <c r="AD13" s="2"/>
+      <c r="AE13" s="2"/>
+      <c r="AF13" s="5"/>
+    </row>
+    <row r="14" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="8"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="2"/>
+      <c r="Z14" s="2"/>
+      <c r="AA14" s="2"/>
+      <c r="AB14" s="2"/>
+      <c r="AC14" s="2"/>
+      <c r="AD14" s="2"/>
+      <c r="AE14" s="2"/>
+      <c r="AF14" s="5"/>
+    </row>
+    <row r="15" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2"/>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="2"/>
+      <c r="Z15" s="2"/>
+      <c r="AA15" s="2"/>
+      <c r="AB15" s="2"/>
+      <c r="AC15" s="2"/>
+      <c r="AD15" s="2"/>
+      <c r="AE15" s="2"/>
+      <c r="AF15" s="5"/>
+    </row>
+    <row r="16" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="2"/>
+      <c r="Z16" s="2"/>
+      <c r="AA16" s="2"/>
+      <c r="AB16" s="2"/>
+      <c r="AC16" s="2"/>
+      <c r="AD16" s="2"/>
+      <c r="AE16" s="2"/>
+      <c r="AF16" s="5"/>
+    </row>
+    <row r="17" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="2"/>
+      <c r="Z17" s="2"/>
+      <c r="AA17" s="2"/>
+      <c r="AB17" s="2"/>
+      <c r="AC17" s="2"/>
+      <c r="AD17" s="2"/>
+      <c r="AE17" s="2"/>
+      <c r="AF17" s="5"/>
+    </row>
+    <row r="18" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="2"/>
+      <c r="Z18" s="2"/>
+      <c r="AA18" s="2"/>
+      <c r="AB18" s="2"/>
+      <c r="AC18" s="2"/>
+      <c r="AD18" s="2"/>
+      <c r="AE18" s="2"/>
+      <c r="AF18" s="5"/>
+    </row>
+    <row r="19" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="6"/>
+      <c r="U19" s="6"/>
+      <c r="V19" s="6"/>
+      <c r="W19" s="6"/>
+      <c r="X19" s="6"/>
+      <c r="Y19" s="6"/>
+      <c r="Z19" s="6"/>
+      <c r="AA19" s="6"/>
+      <c r="AB19" s="6"/>
+      <c r="AC19" s="6"/>
+      <c r="AD19" s="6"/>
+      <c r="AE19" s="6"/>
+      <c r="AF19" s="7"/>
+    </row>
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="9">
+        <v>1</v>
+      </c>
+      <c r="C22" s="9">
+        <f t="shared" ref="C22" si="1">B22+1</f>
+        <v>2</v>
+      </c>
+      <c r="D22" s="9">
+        <f t="shared" ref="D22" si="2">C22+1</f>
+        <v>3</v>
+      </c>
+      <c r="E22" s="9">
+        <f t="shared" ref="E22" si="3">D22+1</f>
+        <v>4</v>
+      </c>
+      <c r="F22" s="9">
+        <f t="shared" ref="F22" si="4">E22+1</f>
+        <v>5</v>
+      </c>
+      <c r="G22" s="9">
+        <f t="shared" ref="G22" si="5">F22+1</f>
+        <v>6</v>
+      </c>
+      <c r="H22" s="9">
+        <f t="shared" ref="H22" si="6">G22+1</f>
+        <v>7</v>
+      </c>
+      <c r="I22" s="9">
+        <f t="shared" ref="I22" si="7">H22+1</f>
+        <v>8</v>
+      </c>
+      <c r="J22" s="9">
+        <f t="shared" ref="J22" si="8">I22+1</f>
+        <v>9</v>
+      </c>
+      <c r="K22" s="9">
+        <f t="shared" ref="K22" si="9">J22+1</f>
+        <v>10</v>
+      </c>
+      <c r="L22" s="9">
+        <f t="shared" ref="L22" si="10">K22+1</f>
+        <v>11</v>
+      </c>
+      <c r="M22" s="9">
+        <f t="shared" ref="M22" si="11">L22+1</f>
+        <v>12</v>
+      </c>
+      <c r="N22" s="9">
+        <f t="shared" ref="N22" si="12">M22+1</f>
+        <v>13</v>
+      </c>
+      <c r="O22" s="9">
+        <f t="shared" ref="O22" si="13">N22+1</f>
+        <v>14</v>
+      </c>
+      <c r="P22" s="9">
+        <f t="shared" ref="P22" si="14">O22+1</f>
+        <v>15</v>
+      </c>
+      <c r="Q22" s="9">
+        <f t="shared" ref="Q22" si="15">P22+1</f>
+        <v>16</v>
+      </c>
+      <c r="R22" s="9">
+        <f t="shared" ref="R22" si="16">Q22+1</f>
+        <v>17</v>
+      </c>
+      <c r="S22" s="9">
+        <f t="shared" ref="S22" si="17">R22+1</f>
+        <v>18</v>
+      </c>
+      <c r="T22" s="9">
+        <f t="shared" ref="T22" si="18">S22+1</f>
+        <v>19</v>
+      </c>
+      <c r="U22" s="9">
+        <f t="shared" ref="U22" si="19">T22+1</f>
+        <v>20</v>
+      </c>
+      <c r="V22" s="9">
+        <f t="shared" ref="V22" si="20">U22+1</f>
+        <v>21</v>
+      </c>
+      <c r="W22" s="9">
+        <f t="shared" ref="W22" si="21">V22+1</f>
+        <v>22</v>
+      </c>
+      <c r="X22" s="9">
+        <f t="shared" ref="X22" si="22">W22+1</f>
+        <v>23</v>
+      </c>
+      <c r="Y22" s="9">
+        <f t="shared" ref="Y22" si="23">X22+1</f>
+        <v>24</v>
+      </c>
+      <c r="Z22" s="9">
+        <f t="shared" ref="Z22" si="24">Y22+1</f>
+        <v>25</v>
+      </c>
+      <c r="AA22" s="9">
+        <f t="shared" ref="AA22" si="25">Z22+1</f>
+        <v>26</v>
+      </c>
+      <c r="AB22" s="9">
+        <f t="shared" ref="AB22" si="26">AA22+1</f>
+        <v>27</v>
+      </c>
+      <c r="AC22" s="9">
+        <f t="shared" ref="AC22" si="27">AB22+1</f>
+        <v>28</v>
+      </c>
+      <c r="AD22" s="9">
+        <f t="shared" ref="AD22" si="28">AC22+1</f>
+        <v>29</v>
+      </c>
+      <c r="AE22" s="9">
+        <f t="shared" ref="AE22" si="29">AD22+1</f>
+        <v>30</v>
+      </c>
+      <c r="AF22" s="9">
+        <f t="shared" ref="AF22" si="30">AE22+1</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
+      <c r="W23" s="3"/>
+      <c r="X23" s="3"/>
+      <c r="Y23" s="3"/>
+      <c r="Z23" s="3"/>
+      <c r="AA23" s="3"/>
+      <c r="AB23" s="3"/>
+      <c r="AC23" s="3"/>
+      <c r="AD23" s="3"/>
+      <c r="AE23" s="3"/>
+      <c r="AF23" s="4"/>
+    </row>
+    <row r="24" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="8"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="2"/>
+      <c r="X24" s="2"/>
+      <c r="Y24" s="2"/>
+      <c r="Z24" s="2"/>
+      <c r="AA24" s="2"/>
+      <c r="AB24" s="2"/>
+      <c r="AC24" s="2"/>
+      <c r="AD24" s="2"/>
+      <c r="AE24" s="2"/>
+      <c r="AF24" s="5"/>
+    </row>
+    <row r="25" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="2"/>
+      <c r="W25" s="2"/>
+      <c r="X25" s="2"/>
+      <c r="Y25" s="2"/>
+      <c r="Z25" s="2"/>
+      <c r="AA25" s="2"/>
+      <c r="AB25" s="2"/>
+      <c r="AC25" s="2"/>
+      <c r="AD25" s="2"/>
+      <c r="AE25" s="2"/>
+      <c r="AF25" s="5"/>
+    </row>
+    <row r="26" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="8"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+      <c r="U26" s="2"/>
+      <c r="V26" s="2"/>
+      <c r="W26" s="2"/>
+      <c r="X26" s="2"/>
+      <c r="Y26" s="2"/>
+      <c r="Z26" s="2"/>
+      <c r="AA26" s="2"/>
+      <c r="AB26" s="2"/>
+      <c r="AC26" s="2"/>
+      <c r="AD26" s="2"/>
+      <c r="AE26" s="2"/>
+      <c r="AF26" s="5"/>
+    </row>
+    <row r="27" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="8"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2"/>
+      <c r="V27" s="2"/>
+      <c r="W27" s="2"/>
+      <c r="X27" s="2"/>
+      <c r="Y27" s="2"/>
+      <c r="Z27" s="2"/>
+      <c r="AA27" s="2"/>
+      <c r="AB27" s="2"/>
+      <c r="AC27" s="2"/>
+      <c r="AD27" s="2"/>
+      <c r="AE27" s="2"/>
+      <c r="AF27" s="5"/>
+    </row>
+    <row r="28" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="8"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+      <c r="U28" s="2"/>
+      <c r="V28" s="2"/>
+      <c r="W28" s="2"/>
+      <c r="X28" s="2"/>
+      <c r="Y28" s="2"/>
+      <c r="Z28" s="2"/>
+      <c r="AA28" s="2"/>
+      <c r="AB28" s="2"/>
+      <c r="AC28" s="2"/>
+      <c r="AD28" s="2"/>
+      <c r="AE28" s="2"/>
+      <c r="AF28" s="5"/>
+    </row>
+    <row r="29" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="8"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2"/>
+      <c r="U29" s="2"/>
+      <c r="V29" s="2"/>
+      <c r="W29" s="2"/>
+      <c r="X29" s="2"/>
+      <c r="Y29" s="2"/>
+      <c r="Z29" s="2"/>
+      <c r="AA29" s="2"/>
+      <c r="AB29" s="2"/>
+      <c r="AC29" s="2"/>
+      <c r="AD29" s="2"/>
+      <c r="AE29" s="2"/>
+      <c r="AF29" s="5"/>
+    </row>
+    <row r="30" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="8"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2"/>
+      <c r="U30" s="2"/>
+      <c r="V30" s="2"/>
+      <c r="W30" s="2"/>
+      <c r="X30" s="2"/>
+      <c r="Y30" s="2"/>
+      <c r="Z30" s="2"/>
+      <c r="AA30" s="2"/>
+      <c r="AB30" s="2"/>
+      <c r="AC30" s="2"/>
+      <c r="AD30" s="2"/>
+      <c r="AE30" s="2"/>
+      <c r="AF30" s="5"/>
+    </row>
+    <row r="31" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="8"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="2"/>
+      <c r="T31" s="2"/>
+      <c r="U31" s="2"/>
+      <c r="V31" s="2"/>
+      <c r="W31" s="2"/>
+      <c r="X31" s="2"/>
+      <c r="Y31" s="2"/>
+      <c r="Z31" s="2"/>
+      <c r="AA31" s="2"/>
+      <c r="AB31" s="2"/>
+      <c r="AC31" s="2"/>
+      <c r="AD31" s="2"/>
+      <c r="AE31" s="2"/>
+      <c r="AF31" s="5"/>
+    </row>
+    <row r="32" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="8"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
+      <c r="O32" s="6"/>
+      <c r="P32" s="6"/>
+      <c r="Q32" s="6"/>
+      <c r="R32" s="6"/>
+      <c r="S32" s="6"/>
+      <c r="T32" s="6"/>
+      <c r="U32" s="6"/>
+      <c r="V32" s="6"/>
+      <c r="W32" s="6"/>
+      <c r="X32" s="6"/>
+      <c r="Y32" s="6"/>
+      <c r="Z32" s="6"/>
+      <c r="AA32" s="6"/>
+      <c r="AB32" s="6"/>
+      <c r="AC32" s="6"/>
+      <c r="AD32" s="6"/>
+      <c r="AE32" s="6"/>
+      <c r="AF32" s="7"/>
+    </row>
+    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="9">
+        <v>1</v>
+      </c>
+      <c r="C35" s="9">
+        <f t="shared" ref="C35" si="31">B35+1</f>
+        <v>2</v>
+      </c>
+      <c r="D35" s="9">
+        <f t="shared" ref="D35" si="32">C35+1</f>
+        <v>3</v>
+      </c>
+      <c r="E35" s="9">
+        <f t="shared" ref="E35" si="33">D35+1</f>
+        <v>4</v>
+      </c>
+      <c r="F35" s="9">
+        <f t="shared" ref="F35" si="34">E35+1</f>
+        <v>5</v>
+      </c>
+      <c r="G35" s="9">
+        <f t="shared" ref="G35" si="35">F35+1</f>
+        <v>6</v>
+      </c>
+      <c r="H35" s="9">
+        <f t="shared" ref="H35" si="36">G35+1</f>
+        <v>7</v>
+      </c>
+      <c r="I35" s="9">
+        <f t="shared" ref="I35" si="37">H35+1</f>
+        <v>8</v>
+      </c>
+      <c r="J35" s="9">
+        <f t="shared" ref="J35" si="38">I35+1</f>
+        <v>9</v>
+      </c>
+      <c r="K35" s="9">
+        <f t="shared" ref="K35" si="39">J35+1</f>
+        <v>10</v>
+      </c>
+      <c r="L35" s="9">
+        <f t="shared" ref="L35" si="40">K35+1</f>
+        <v>11</v>
+      </c>
+      <c r="M35" s="9">
+        <f t="shared" ref="M35" si="41">L35+1</f>
+        <v>12</v>
+      </c>
+      <c r="N35" s="9">
+        <f t="shared" ref="N35" si="42">M35+1</f>
+        <v>13</v>
+      </c>
+      <c r="O35" s="9">
+        <f t="shared" ref="O35" si="43">N35+1</f>
+        <v>14</v>
+      </c>
+      <c r="P35" s="9">
+        <f t="shared" ref="P35" si="44">O35+1</f>
+        <v>15</v>
+      </c>
+      <c r="Q35" s="9">
+        <f t="shared" ref="Q35" si="45">P35+1</f>
+        <v>16</v>
+      </c>
+      <c r="R35" s="9">
+        <f t="shared" ref="R35" si="46">Q35+1</f>
+        <v>17</v>
+      </c>
+      <c r="S35" s="9">
+        <f t="shared" ref="S35" si="47">R35+1</f>
+        <v>18</v>
+      </c>
+      <c r="T35" s="9">
+        <f t="shared" ref="T35" si="48">S35+1</f>
+        <v>19</v>
+      </c>
+      <c r="U35" s="9">
+        <f t="shared" ref="U35" si="49">T35+1</f>
+        <v>20</v>
+      </c>
+      <c r="V35" s="9">
+        <f t="shared" ref="V35" si="50">U35+1</f>
+        <v>21</v>
+      </c>
+      <c r="W35" s="9">
+        <f t="shared" ref="W35" si="51">V35+1</f>
+        <v>22</v>
+      </c>
+      <c r="X35" s="9">
+        <f t="shared" ref="X35" si="52">W35+1</f>
+        <v>23</v>
+      </c>
+      <c r="Y35" s="9">
+        <f t="shared" ref="Y35" si="53">X35+1</f>
+        <v>24</v>
+      </c>
+      <c r="Z35" s="9">
+        <f t="shared" ref="Z35" si="54">Y35+1</f>
+        <v>25</v>
+      </c>
+      <c r="AA35" s="9">
+        <f t="shared" ref="AA35" si="55">Z35+1</f>
+        <v>26</v>
+      </c>
+      <c r="AB35" s="9">
+        <f t="shared" ref="AB35" si="56">AA35+1</f>
+        <v>27</v>
+      </c>
+      <c r="AC35" s="9">
+        <f t="shared" ref="AC35" si="57">AB35+1</f>
+        <v>28</v>
+      </c>
+      <c r="AD35" s="9">
+        <f t="shared" ref="AD35" si="58">AC35+1</f>
+        <v>29</v>
+      </c>
+      <c r="AE35" s="9">
+        <f t="shared" ref="AE35" si="59">AD35+1</f>
+        <v>30</v>
+      </c>
+      <c r="AF35" s="9">
+        <f t="shared" ref="AF35" si="60">AE35+1</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="8"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="3"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="3"/>
+      <c r="U36" s="3"/>
+      <c r="V36" s="3"/>
+      <c r="W36" s="3"/>
+      <c r="X36" s="3"/>
+      <c r="Y36" s="3"/>
+      <c r="Z36" s="3"/>
+      <c r="AA36" s="3"/>
+      <c r="AB36" s="3"/>
+      <c r="AC36" s="3"/>
+      <c r="AD36" s="3"/>
+      <c r="AE36" s="3"/>
+      <c r="AF36" s="4"/>
+    </row>
+    <row r="37" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="8"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
+      <c r="U37" s="2"/>
+      <c r="V37" s="2"/>
+      <c r="W37" s="2"/>
+      <c r="X37" s="2"/>
+      <c r="Y37" s="2"/>
+      <c r="Z37" s="2"/>
+      <c r="AA37" s="2"/>
+      <c r="AB37" s="2"/>
+      <c r="AC37" s="2"/>
+      <c r="AD37" s="2"/>
+      <c r="AE37" s="2"/>
+      <c r="AF37" s="5"/>
+    </row>
+    <row r="38" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="8"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="2"/>
+      <c r="T38" s="2"/>
+      <c r="U38" s="2"/>
+      <c r="V38" s="2"/>
+      <c r="W38" s="2"/>
+      <c r="X38" s="2"/>
+      <c r="Y38" s="2"/>
+      <c r="Z38" s="2"/>
+      <c r="AA38" s="2"/>
+      <c r="AB38" s="2"/>
+      <c r="AC38" s="2"/>
+      <c r="AD38" s="2"/>
+      <c r="AE38" s="2"/>
+      <c r="AF38" s="5"/>
+    </row>
+    <row r="39" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="8"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="2"/>
+      <c r="S39" s="2"/>
+      <c r="T39" s="2"/>
+      <c r="U39" s="2"/>
+      <c r="V39" s="2"/>
+      <c r="W39" s="2"/>
+      <c r="X39" s="2"/>
+      <c r="Y39" s="2"/>
+      <c r="Z39" s="2"/>
+      <c r="AA39" s="2"/>
+      <c r="AB39" s="2"/>
+      <c r="AC39" s="2"/>
+      <c r="AD39" s="2"/>
+      <c r="AE39" s="2"/>
+      <c r="AF39" s="5"/>
+    </row>
+    <row r="40" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="8"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="2"/>
+      <c r="R40" s="2"/>
+      <c r="S40" s="2"/>
+      <c r="T40" s="2"/>
+      <c r="U40" s="2"/>
+      <c r="V40" s="2"/>
+      <c r="W40" s="2"/>
+      <c r="X40" s="2"/>
+      <c r="Y40" s="2"/>
+      <c r="Z40" s="2"/>
+      <c r="AA40" s="2"/>
+      <c r="AB40" s="2"/>
+      <c r="AC40" s="2"/>
+      <c r="AD40" s="2"/>
+      <c r="AE40" s="2"/>
+      <c r="AF40" s="5"/>
+    </row>
+    <row r="41" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="8"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="2"/>
+      <c r="T41" s="2"/>
+      <c r="U41" s="2"/>
+      <c r="V41" s="2"/>
+      <c r="W41" s="2"/>
+      <c r="X41" s="2"/>
+      <c r="Y41" s="2"/>
+      <c r="Z41" s="2"/>
+      <c r="AA41" s="2"/>
+      <c r="AB41" s="2"/>
+      <c r="AC41" s="2"/>
+      <c r="AD41" s="2"/>
+      <c r="AE41" s="2"/>
+      <c r="AF41" s="5"/>
+    </row>
+    <row r="42" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="8"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="2"/>
+      <c r="T42" s="2"/>
+      <c r="U42" s="2"/>
+      <c r="V42" s="2"/>
+      <c r="W42" s="2"/>
+      <c r="X42" s="2"/>
+      <c r="Y42" s="2"/>
+      <c r="Z42" s="2"/>
+      <c r="AA42" s="2"/>
+      <c r="AB42" s="2"/>
+      <c r="AC42" s="2"/>
+      <c r="AD42" s="2"/>
+      <c r="AE42" s="2"/>
+      <c r="AF42" s="5"/>
+    </row>
+    <row r="43" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="8"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+      <c r="P43" s="2"/>
+      <c r="Q43" s="2"/>
+      <c r="R43" s="2"/>
+      <c r="S43" s="2"/>
+      <c r="T43" s="2"/>
+      <c r="U43" s="2"/>
+      <c r="V43" s="2"/>
+      <c r="W43" s="2"/>
+      <c r="X43" s="2"/>
+      <c r="Y43" s="2"/>
+      <c r="Z43" s="2"/>
+      <c r="AA43" s="2"/>
+      <c r="AB43" s="2"/>
+      <c r="AC43" s="2"/>
+      <c r="AD43" s="2"/>
+      <c r="AE43" s="2"/>
+      <c r="AF43" s="5"/>
+    </row>
+    <row r="44" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="8"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+      <c r="P44" s="2"/>
+      <c r="Q44" s="2"/>
+      <c r="R44" s="2"/>
+      <c r="S44" s="2"/>
+      <c r="T44" s="2"/>
+      <c r="U44" s="2"/>
+      <c r="V44" s="2"/>
+      <c r="W44" s="2"/>
+      <c r="X44" s="2"/>
+      <c r="Y44" s="2"/>
+      <c r="Z44" s="2"/>
+      <c r="AA44" s="2"/>
+      <c r="AB44" s="2"/>
+      <c r="AC44" s="2"/>
+      <c r="AD44" s="2"/>
+      <c r="AE44" s="2"/>
+      <c r="AF44" s="5"/>
+    </row>
+    <row r="45" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="8"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="6"/>
+      <c r="L45" s="6"/>
+      <c r="M45" s="6"/>
+      <c r="N45" s="6"/>
+      <c r="O45" s="6"/>
+      <c r="P45" s="6"/>
+      <c r="Q45" s="6"/>
+      <c r="R45" s="6"/>
+      <c r="S45" s="6"/>
+      <c r="T45" s="6"/>
+      <c r="U45" s="6"/>
+      <c r="V45" s="6"/>
+      <c r="W45" s="6"/>
+      <c r="X45" s="6"/>
+      <c r="Y45" s="6"/>
+      <c r="Z45" s="6"/>
+      <c r="AA45" s="6"/>
+      <c r="AB45" s="6"/>
+      <c r="AC45" s="6"/>
+      <c r="AD45" s="6"/>
+      <c r="AE45" s="6"/>
+      <c r="AF45" s="7"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:AF1"/>
+    <mergeCell ref="A5:AF5"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="A6:AF6"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="80" fitToHeight="0" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{988645EB-D988-4FBB-8126-1B5F12C510AF}">
-  <dimension ref="A1:O23"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="5" width="18.42578125" customWidth="1"/>
+    <col min="6" max="6" width="3.42578125" customWidth="1"/>
+    <col min="7" max="13" width="7.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="224.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1">
+        <f t="shared" ref="B4:E7" si="0">A4+1</f>
+        <v>2</v>
+      </c>
+      <c r="C4" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E4" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="224.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1">
+        <f t="shared" ref="B5:E5" si="1">A5+1</f>
+        <v>7</v>
+      </c>
+      <c r="C5" s="1">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="224.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1">
+        <f t="shared" ref="B6:E6" si="2">A6+1</f>
+        <v>12</v>
+      </c>
+      <c r="C6" s="1">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="224.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>16</v>
+      </c>
+      <c r="B7" s="1">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="C7" s="1">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="224.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>21</v>
+      </c>
+      <c r="B8" s="1">
+        <f t="shared" ref="B8:E8" si="3">A8+1</f>
+        <v>22</v>
+      </c>
+      <c r="C8" s="1">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="224.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>26</v>
+      </c>
+      <c r="B9" s="1">
+        <f t="shared" ref="B9" si="4">A9+1</f>
+        <v>27</v>
+      </c>
+      <c r="C9" s="1">
+        <f t="shared" ref="C9" si="5">B9+1</f>
+        <v>28</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" ref="D9" si="6">C9+1</f>
+        <v>29</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" ref="E9" si="7">D9+1</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="224.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>31</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="98" fitToHeight="0" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54036C81-0F91-4875-B932-01D75F2B647D}">
+  <dimension ref="A1:O7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -451,501 +2471,392 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <f t="shared" ref="B3:G7" si="0">A3+1</f>
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D3" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E3" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F3" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G3" s="1">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="I3" s="1">
         <v>1</v>
       </c>
-      <c r="B5" s="2">
-        <f t="shared" ref="B5:G9" si="0">A5+1</f>
+      <c r="J3" s="1">
+        <f t="shared" ref="J3:O7" si="1">I3+1</f>
         <v>2</v>
       </c>
-      <c r="C5" s="2">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="D5" s="2">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="E5" s="2">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="F5" s="2">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="G5" s="2">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>8</v>
-      </c>
-      <c r="B6" s="2">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="C6" s="2">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="D6" s="2">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="E6" s="2">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="F6" s="2">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="G6" s="2">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>15</v>
-      </c>
-      <c r="B7" s="2">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="C7" s="2">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="D7" s="2">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="E7" s="2">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="F7" s="2">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="G7" s="2">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>22</v>
-      </c>
-      <c r="B8" s="2">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="C8" s="2">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="D8" s="2">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="E8" s="2">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="F8" s="2">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="G8" s="2">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>29</v>
-      </c>
-      <c r="B9" s="2">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="C9" s="2">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="I10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>5</v>
-      </c>
-      <c r="I11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>1</v>
-      </c>
-      <c r="B12" s="2">
-        <f t="shared" ref="B12:G16" si="1">A12+1</f>
-        <v>2</v>
-      </c>
-      <c r="C12" s="2">
+      <c r="K3" s="1">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="D12" s="2">
+      <c r="L3" s="1">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="E12" s="2">
+      <c r="M3" s="1">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="F12" s="2">
+      <c r="N3" s="1">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="G12" s="2">
+      <c r="O3" s="1">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="I12" s="2">
-        <v>1</v>
-      </c>
-      <c r="J12" s="2">
-        <f t="shared" ref="J12:O16" si="2">I12+1</f>
-        <v>2</v>
-      </c>
-      <c r="K12" s="2">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="L12" s="2">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="M12" s="2">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="N12" s="2">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="O12" s="2">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+    </row>
+    <row r="4" spans="1:15" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>8</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B4" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C4" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="E4" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="I4" s="1">
+        <v>8</v>
+      </c>
+      <c r="J4" s="1">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="C13" s="2">
+      <c r="K4" s="1">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="D13" s="2">
+      <c r="L4" s="1">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="E13" s="2">
+      <c r="M4" s="1">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="F13" s="2">
+      <c r="N4" s="1">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="G13" s="2">
+      <c r="O4" s="1">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="I13" s="2">
-        <v>8</v>
-      </c>
-      <c r="J13" s="2">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="K13" s="2">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="L13" s="2">
-        <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="M13" s="2">
-        <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="N13" s="2">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-      <c r="O13" s="2">
-        <f t="shared" si="2"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+    </row>
+    <row r="5" spans="1:15" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>15</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B5" s="1">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C5" s="1">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="I5" s="1">
+        <v>15</v>
+      </c>
+      <c r="J5" s="1">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="C14" s="2">
+      <c r="K5" s="1">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="D14" s="2">
+      <c r="L5" s="1">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="E14" s="2">
+      <c r="M5" s="1">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="F14" s="2">
+      <c r="N5" s="1">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="G14" s="2">
+      <c r="O5" s="1">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="I14" s="2">
-        <v>15</v>
-      </c>
-      <c r="J14" s="2">
-        <f t="shared" si="2"/>
-        <v>16</v>
-      </c>
-      <c r="K14" s="2">
-        <f t="shared" si="2"/>
-        <v>17</v>
-      </c>
-      <c r="L14" s="2">
-        <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
-      <c r="M14" s="2">
-        <f t="shared" si="2"/>
-        <v>19</v>
-      </c>
-      <c r="N14" s="2">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="O14" s="2">
-        <f t="shared" si="2"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+    </row>
+    <row r="6" spans="1:15" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>22</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B6" s="1">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="C6" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="I6" s="1">
+        <v>22</v>
+      </c>
+      <c r="J6" s="1">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="C15" s="2">
+      <c r="K6" s="1">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="D15" s="2">
+      <c r="L6" s="1">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="E15" s="2">
+      <c r="M6" s="1">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="F15" s="2">
+      <c r="N6" s="1">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="G15" s="2">
+      <c r="O6" s="1">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="I15" s="2">
-        <v>22</v>
-      </c>
-      <c r="J15" s="2">
-        <f t="shared" si="2"/>
-        <v>23</v>
-      </c>
-      <c r="K15" s="2">
-        <f t="shared" si="2"/>
-        <v>24</v>
-      </c>
-      <c r="L15" s="2">
-        <f t="shared" si="2"/>
-        <v>25</v>
-      </c>
-      <c r="M15" s="2">
-        <f t="shared" si="2"/>
-        <v>26</v>
-      </c>
-      <c r="N15" s="2">
-        <f t="shared" si="2"/>
-        <v>27</v>
-      </c>
-      <c r="O15" s="2">
-        <f t="shared" si="2"/>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+    </row>
+    <row r="7" spans="1:15" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>29</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B7" s="1">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="C7" s="1">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="I7" s="1">
+        <v>29</v>
+      </c>
+      <c r="J7" s="1">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="C16" s="2">
+      <c r="K7" s="1">
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="I16" s="2">
-        <v>29</v>
-      </c>
-      <c r="J16" s="2">
-        <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-      <c r="K16" s="2">
-        <f t="shared" si="2"/>
-        <v>31</v>
-      </c>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9F04207-23D5-4E2B-AC99-D963C31B420D}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="5" width="18.42578125" customWidth="1"/>
+    <col min="6" max="6" width="3.42578125" customWidth="1"/>
+    <col min="7" max="13" width="7.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+    <row r="4" spans="1:5" ht="224.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F19" s="2" t="s">
+    </row>
+    <row r="5" spans="1:5" ht="224.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E20" s="2" t="s">
+    </row>
+    <row r="6" spans="1:5" ht="224.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="E6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="98" fitToHeight="0" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6355EDF-BF68-42B1-AE16-80AE37E051CB}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/pesantren/bagian bahasa/lembar evaluasi.xlsx
+++ b/pesantren/bagian bahasa/lembar evaluasi.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20402"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B0F81D0-2765-4D2A-BDE8-5FB40D8C8C02}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A92189E4-C83E-47A3-A25D-BC5EA4400147}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ringkasan" sheetId="1" r:id="rId1"/>
@@ -15,8 +15,9 @@
     <sheet name="evaluasi" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'mufrodat harian dan islah'!$A$1:$O$7</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'mufrodat wajib'!$A$1:$E$10</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">ringkasan!$A$1:$AF$45</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">ringkasan!$A$1:$AF$50</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'wajib bahasa'!$A$1:$E$6</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="24">
   <si>
     <t>Bulan</t>
   </si>
@@ -90,6 +91,18 @@
   <si>
     <t>Pelanggaran Islah</t>
   </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>Sn</t>
+  </si>
+  <si>
+    <t>Sl</t>
+  </si>
+  <si>
+    <t>Pelanggaran Wajib Bahasa</t>
+  </si>
 </sst>
 </file>
 
@@ -120,7 +133,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -313,11 +326,91 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -335,11 +428,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -347,6 +440,23 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -632,10 +742,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AF45"/>
+  <dimension ref="A1:AF51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:AF45"/>
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -645,87 +755,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
-      <c r="W1" s="13"/>
-      <c r="X1" s="13"/>
-      <c r="Y1" s="13"/>
-      <c r="Z1" s="13"/>
-      <c r="AA1" s="13"/>
-      <c r="AB1" s="13"/>
-      <c r="AC1" s="13"/>
-      <c r="AD1" s="13"/>
-      <c r="AE1" s="13"/>
-      <c r="AF1" s="13"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
+      <c r="W1" s="16"/>
+      <c r="X1" s="16"/>
+      <c r="Y1" s="16"/>
+      <c r="Z1" s="16"/>
+      <c r="AA1" s="16"/>
+      <c r="AB1" s="16"/>
+      <c r="AC1" s="16"/>
+      <c r="AD1" s="16"/>
+      <c r="AE1" s="16"/>
+      <c r="AF1" s="16"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="16"/>
-      <c r="U2" s="16"/>
-      <c r="V2" s="16"/>
-      <c r="W2" s="16"/>
-      <c r="X2" s="16"/>
-      <c r="Y2" s="16"/>
-      <c r="Z2" s="16"/>
-      <c r="AA2" s="16"/>
-      <c r="AB2" s="16"/>
-      <c r="AC2" s="16"/>
-      <c r="AD2" s="16"/>
-      <c r="AE2" s="16"/>
-      <c r="AF2" s="16"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
+      <c r="U2" s="15"/>
+      <c r="V2" s="15"/>
+      <c r="W2" s="15"/>
+      <c r="X2" s="15"/>
+      <c r="Y2" s="15"/>
+      <c r="Z2" s="15"/>
+      <c r="AA2" s="15"/>
+      <c r="AB2" s="15"/>
+      <c r="AC2" s="15"/>
+      <c r="AD2" s="15"/>
+      <c r="AE2" s="15"/>
+      <c r="AF2" s="15"/>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
       <c r="AC3" s="17" t="s">
         <v>15</v>
       </c>
@@ -734,50 +844,50 @@
       <c r="AF3" s="17"/>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="13"/>
-      <c r="S5" s="13"/>
-      <c r="T5" s="13"/>
-      <c r="U5" s="13"/>
-      <c r="V5" s="13"/>
-      <c r="W5" s="13"/>
-      <c r="X5" s="13"/>
-      <c r="Y5" s="13"/>
-      <c r="Z5" s="13"/>
-      <c r="AA5" s="13"/>
-      <c r="AB5" s="13"/>
-      <c r="AC5" s="13"/>
-      <c r="AD5" s="13"/>
-      <c r="AE5" s="13"/>
-      <c r="AF5" s="13"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="16"/>
+      <c r="S5" s="16"/>
+      <c r="T5" s="16"/>
+      <c r="U5" s="16"/>
+      <c r="V5" s="16"/>
+      <c r="W5" s="16"/>
+      <c r="X5" s="16"/>
+      <c r="Y5" s="16"/>
+      <c r="Z5" s="16"/>
+      <c r="AA5" s="16"/>
+      <c r="AB5" s="16"/>
+      <c r="AC5" s="16"/>
+      <c r="AD5" s="16"/>
+      <c r="AE5" s="16"/>
+      <c r="AF5" s="16"/>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
@@ -816,38 +926,38 @@
       <c r="AF6" s="18"/>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="16"/>
-      <c r="S7" s="16"/>
-      <c r="T7" s="16"/>
-      <c r="U7" s="16"/>
-      <c r="V7" s="16"/>
-      <c r="W7" s="16"/>
-      <c r="X7" s="16"/>
-      <c r="Y7" s="16"/>
-      <c r="Z7" s="16"/>
-      <c r="AA7" s="16"/>
-      <c r="AB7" s="16"/>
-      <c r="AC7" s="16"/>
-      <c r="AD7" s="16"/>
-      <c r="AE7" s="16"/>
-      <c r="AF7" s="16"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="15"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="15"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="15"/>
+      <c r="W7" s="15"/>
+      <c r="X7" s="15"/>
+      <c r="Y7" s="15"/>
+      <c r="Z7" s="15"/>
+      <c r="AA7" s="15"/>
+      <c r="AB7" s="15"/>
+      <c r="AC7" s="15"/>
+      <c r="AD7" s="15"/>
+      <c r="AE7" s="15"/>
+      <c r="AF7" s="15"/>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1219,269 +1329,269 @@
     </row>
     <row r="17" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
-      <c r="S17" s="2"/>
-      <c r="T17" s="2"/>
-      <c r="U17" s="2"/>
-      <c r="V17" s="2"/>
-      <c r="W17" s="2"/>
-      <c r="X17" s="2"/>
-      <c r="Y17" s="2"/>
-      <c r="Z17" s="2"/>
-      <c r="AA17" s="2"/>
-      <c r="AB17" s="2"/>
-      <c r="AC17" s="2"/>
-      <c r="AD17" s="2"/>
-      <c r="AE17" s="2"/>
-      <c r="AF17" s="5"/>
-    </row>
-    <row r="18" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
-      <c r="S18" s="2"/>
-      <c r="T18" s="2"/>
-      <c r="U18" s="2"/>
-      <c r="V18" s="2"/>
-      <c r="W18" s="2"/>
-      <c r="X18" s="2"/>
-      <c r="Y18" s="2"/>
-      <c r="Z18" s="2"/>
-      <c r="AA18" s="2"/>
-      <c r="AB18" s="2"/>
-      <c r="AC18" s="2"/>
-      <c r="AD18" s="2"/>
-      <c r="AE18" s="2"/>
-      <c r="AF18" s="5"/>
-    </row>
-    <row r="19" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="6"/>
-      <c r="R19" s="6"/>
-      <c r="S19" s="6"/>
-      <c r="T19" s="6"/>
-      <c r="U19" s="6"/>
-      <c r="V19" s="6"/>
-      <c r="W19" s="6"/>
-      <c r="X19" s="6"/>
-      <c r="Y19" s="6"/>
-      <c r="Z19" s="6"/>
-      <c r="AA19" s="6"/>
-      <c r="AB19" s="6"/>
-      <c r="AC19" s="6"/>
-      <c r="AD19" s="6"/>
-      <c r="AE19" s="6"/>
-      <c r="AF19" s="7"/>
-    </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="B17" s="12"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="6"/>
+      <c r="U17" s="6"/>
+      <c r="V17" s="6"/>
+      <c r="W17" s="6"/>
+      <c r="X17" s="6"/>
+      <c r="Y17" s="6"/>
+      <c r="Z17" s="6"/>
+      <c r="AA17" s="6"/>
+      <c r="AB17" s="6"/>
+      <c r="AC17" s="6"/>
+      <c r="AD17" s="6"/>
+      <c r="AE17" s="6"/>
+      <c r="AF17" s="7"/>
+    </row>
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>18</v>
       </c>
     </row>
+    <row r="20" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="9">
+        <v>1</v>
+      </c>
+      <c r="C20" s="9">
+        <f t="shared" ref="C20" si="1">B20+1</f>
+        <v>2</v>
+      </c>
+      <c r="D20" s="9">
+        <f t="shared" ref="D20" si="2">C20+1</f>
+        <v>3</v>
+      </c>
+      <c r="E20" s="9">
+        <f t="shared" ref="E20" si="3">D20+1</f>
+        <v>4</v>
+      </c>
+      <c r="F20" s="9">
+        <f t="shared" ref="F20" si="4">E20+1</f>
+        <v>5</v>
+      </c>
+      <c r="G20" s="9">
+        <f t="shared" ref="G20" si="5">F20+1</f>
+        <v>6</v>
+      </c>
+      <c r="H20" s="9">
+        <f t="shared" ref="H20" si="6">G20+1</f>
+        <v>7</v>
+      </c>
+      <c r="I20" s="9">
+        <f t="shared" ref="I20" si="7">H20+1</f>
+        <v>8</v>
+      </c>
+      <c r="J20" s="9">
+        <f t="shared" ref="J20" si="8">I20+1</f>
+        <v>9</v>
+      </c>
+      <c r="K20" s="9">
+        <f t="shared" ref="K20" si="9">J20+1</f>
+        <v>10</v>
+      </c>
+      <c r="L20" s="9">
+        <f t="shared" ref="L20" si="10">K20+1</f>
+        <v>11</v>
+      </c>
+      <c r="M20" s="9">
+        <f t="shared" ref="M20" si="11">L20+1</f>
+        <v>12</v>
+      </c>
+      <c r="N20" s="9">
+        <f t="shared" ref="N20" si="12">M20+1</f>
+        <v>13</v>
+      </c>
+      <c r="O20" s="9">
+        <f t="shared" ref="O20" si="13">N20+1</f>
+        <v>14</v>
+      </c>
+      <c r="P20" s="9">
+        <f t="shared" ref="P20" si="14">O20+1</f>
+        <v>15</v>
+      </c>
+      <c r="Q20" s="9">
+        <f t="shared" ref="Q20" si="15">P20+1</f>
+        <v>16</v>
+      </c>
+      <c r="R20" s="9">
+        <f t="shared" ref="R20" si="16">Q20+1</f>
+        <v>17</v>
+      </c>
+      <c r="S20" s="9">
+        <f t="shared" ref="S20" si="17">R20+1</f>
+        <v>18</v>
+      </c>
+      <c r="T20" s="9">
+        <f t="shared" ref="T20" si="18">S20+1</f>
+        <v>19</v>
+      </c>
+      <c r="U20" s="9">
+        <f t="shared" ref="U20" si="19">T20+1</f>
+        <v>20</v>
+      </c>
+      <c r="V20" s="9">
+        <f t="shared" ref="V20" si="20">U20+1</f>
+        <v>21</v>
+      </c>
+      <c r="W20" s="9">
+        <f t="shared" ref="W20" si="21">V20+1</f>
+        <v>22</v>
+      </c>
+      <c r="X20" s="9">
+        <f t="shared" ref="X20" si="22">W20+1</f>
+        <v>23</v>
+      </c>
+      <c r="Y20" s="9">
+        <f t="shared" ref="Y20" si="23">X20+1</f>
+        <v>24</v>
+      </c>
+      <c r="Z20" s="9">
+        <f t="shared" ref="Z20" si="24">Y20+1</f>
+        <v>25</v>
+      </c>
+      <c r="AA20" s="9">
+        <f t="shared" ref="AA20" si="25">Z20+1</f>
+        <v>26</v>
+      </c>
+      <c r="AB20" s="9">
+        <f t="shared" ref="AB20" si="26">AA20+1</f>
+        <v>27</v>
+      </c>
+      <c r="AC20" s="9">
+        <f t="shared" ref="AC20" si="27">AB20+1</f>
+        <v>28</v>
+      </c>
+      <c r="AD20" s="9">
+        <f t="shared" ref="AD20" si="28">AC20+1</f>
+        <v>29</v>
+      </c>
+      <c r="AE20" s="9">
+        <f t="shared" ref="AE20" si="29">AD20+1</f>
+        <v>30</v>
+      </c>
+      <c r="AF20" s="9">
+        <f t="shared" ref="AF20" si="30">AE20+1</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3"/>
+      <c r="W21" s="3"/>
+      <c r="X21" s="3"/>
+      <c r="Y21" s="3"/>
+      <c r="Z21" s="3"/>
+      <c r="AA21" s="3"/>
+      <c r="AB21" s="3"/>
+      <c r="AC21" s="3"/>
+      <c r="AD21" s="3"/>
+      <c r="AE21" s="3"/>
+      <c r="AF21" s="4"/>
+    </row>
     <row r="22" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="9">
-        <v>1</v>
-      </c>
-      <c r="C22" s="9">
-        <f t="shared" ref="C22" si="1">B22+1</f>
-        <v>2</v>
-      </c>
-      <c r="D22" s="9">
-        <f t="shared" ref="D22" si="2">C22+1</f>
-        <v>3</v>
-      </c>
-      <c r="E22" s="9">
-        <f t="shared" ref="E22" si="3">D22+1</f>
-        <v>4</v>
-      </c>
-      <c r="F22" s="9">
-        <f t="shared" ref="F22" si="4">E22+1</f>
-        <v>5</v>
-      </c>
-      <c r="G22" s="9">
-        <f t="shared" ref="G22" si="5">F22+1</f>
-        <v>6</v>
-      </c>
-      <c r="H22" s="9">
-        <f t="shared" ref="H22" si="6">G22+1</f>
-        <v>7</v>
-      </c>
-      <c r="I22" s="9">
-        <f t="shared" ref="I22" si="7">H22+1</f>
-        <v>8</v>
-      </c>
-      <c r="J22" s="9">
-        <f t="shared" ref="J22" si="8">I22+1</f>
-        <v>9</v>
-      </c>
-      <c r="K22" s="9">
-        <f t="shared" ref="K22" si="9">J22+1</f>
-        <v>10</v>
-      </c>
-      <c r="L22" s="9">
-        <f t="shared" ref="L22" si="10">K22+1</f>
-        <v>11</v>
-      </c>
-      <c r="M22" s="9">
-        <f t="shared" ref="M22" si="11">L22+1</f>
-        <v>12</v>
-      </c>
-      <c r="N22" s="9">
-        <f t="shared" ref="N22" si="12">M22+1</f>
-        <v>13</v>
-      </c>
-      <c r="O22" s="9">
-        <f t="shared" ref="O22" si="13">N22+1</f>
-        <v>14</v>
-      </c>
-      <c r="P22" s="9">
-        <f t="shared" ref="P22" si="14">O22+1</f>
-        <v>15</v>
-      </c>
-      <c r="Q22" s="9">
-        <f t="shared" ref="Q22" si="15">P22+1</f>
-        <v>16</v>
-      </c>
-      <c r="R22" s="9">
-        <f t="shared" ref="R22" si="16">Q22+1</f>
-        <v>17</v>
-      </c>
-      <c r="S22" s="9">
-        <f t="shared" ref="S22" si="17">R22+1</f>
-        <v>18</v>
-      </c>
-      <c r="T22" s="9">
-        <f t="shared" ref="T22" si="18">S22+1</f>
-        <v>19</v>
-      </c>
-      <c r="U22" s="9">
-        <f t="shared" ref="U22" si="19">T22+1</f>
-        <v>20</v>
-      </c>
-      <c r="V22" s="9">
-        <f t="shared" ref="V22" si="20">U22+1</f>
-        <v>21</v>
-      </c>
-      <c r="W22" s="9">
-        <f t="shared" ref="W22" si="21">V22+1</f>
-        <v>22</v>
-      </c>
-      <c r="X22" s="9">
-        <f t="shared" ref="X22" si="22">W22+1</f>
-        <v>23</v>
-      </c>
-      <c r="Y22" s="9">
-        <f t="shared" ref="Y22" si="23">X22+1</f>
-        <v>24</v>
-      </c>
-      <c r="Z22" s="9">
-        <f t="shared" ref="Z22" si="24">Y22+1</f>
-        <v>25</v>
-      </c>
-      <c r="AA22" s="9">
-        <f t="shared" ref="AA22" si="25">Z22+1</f>
-        <v>26</v>
-      </c>
-      <c r="AB22" s="9">
-        <f t="shared" ref="AB22" si="26">AA22+1</f>
-        <v>27</v>
-      </c>
-      <c r="AC22" s="9">
-        <f t="shared" ref="AC22" si="27">AB22+1</f>
-        <v>28</v>
-      </c>
-      <c r="AD22" s="9">
-        <f t="shared" ref="AD22" si="28">AC22+1</f>
-        <v>29</v>
-      </c>
-      <c r="AE22" s="9">
-        <f t="shared" ref="AE22" si="29">AD22+1</f>
-        <v>30</v>
-      </c>
-      <c r="AF22" s="9">
-        <f t="shared" ref="AF22" si="30">AE22+1</f>
-        <v>31</v>
-      </c>
+      <c r="A22" s="8"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="2"/>
+      <c r="Z22" s="2"/>
+      <c r="AA22" s="2"/>
+      <c r="AB22" s="2"/>
+      <c r="AC22" s="2"/>
+      <c r="AD22" s="2"/>
+      <c r="AE22" s="2"/>
+      <c r="AF22" s="5"/>
     </row>
     <row r="23" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="3"/>
-      <c r="S23" s="3"/>
-      <c r="T23" s="3"/>
-      <c r="U23" s="3"/>
-      <c r="V23" s="3"/>
-      <c r="W23" s="3"/>
-      <c r="X23" s="3"/>
-      <c r="Y23" s="3"/>
-      <c r="Z23" s="3"/>
-      <c r="AA23" s="3"/>
-      <c r="AB23" s="3"/>
-      <c r="AC23" s="3"/>
-      <c r="AD23" s="3"/>
-      <c r="AE23" s="3"/>
-      <c r="AF23" s="4"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="2"/>
+      <c r="W23" s="2"/>
+      <c r="X23" s="2"/>
+      <c r="Y23" s="2"/>
+      <c r="Z23" s="2"/>
+      <c r="AA23" s="2"/>
+      <c r="AB23" s="2"/>
+      <c r="AC23" s="2"/>
+      <c r="AD23" s="2"/>
+      <c r="AE23" s="2"/>
+      <c r="AF23" s="5"/>
     </row>
     <row r="24" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
@@ -1621,337 +1731,337 @@
     </row>
     <row r="28" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
-      <c r="P28" s="2"/>
-      <c r="Q28" s="2"/>
-      <c r="R28" s="2"/>
-      <c r="S28" s="2"/>
-      <c r="T28" s="2"/>
-      <c r="U28" s="2"/>
-      <c r="V28" s="2"/>
-      <c r="W28" s="2"/>
-      <c r="X28" s="2"/>
-      <c r="Y28" s="2"/>
-      <c r="Z28" s="2"/>
-      <c r="AA28" s="2"/>
-      <c r="AB28" s="2"/>
-      <c r="AC28" s="2"/>
-      <c r="AD28" s="2"/>
-      <c r="AE28" s="2"/>
-      <c r="AF28" s="5"/>
-    </row>
-    <row r="29" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="8"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
-      <c r="P29" s="2"/>
-      <c r="Q29" s="2"/>
-      <c r="R29" s="2"/>
-      <c r="S29" s="2"/>
-      <c r="T29" s="2"/>
-      <c r="U29" s="2"/>
-      <c r="V29" s="2"/>
-      <c r="W29" s="2"/>
-      <c r="X29" s="2"/>
-      <c r="Y29" s="2"/>
-      <c r="Z29" s="2"/>
-      <c r="AA29" s="2"/>
-      <c r="AB29" s="2"/>
-      <c r="AC29" s="2"/>
-      <c r="AD29" s="2"/>
-      <c r="AE29" s="2"/>
-      <c r="AF29" s="5"/>
-    </row>
-    <row r="30" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="8"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
-      <c r="P30" s="2"/>
-      <c r="Q30" s="2"/>
-      <c r="R30" s="2"/>
-      <c r="S30" s="2"/>
-      <c r="T30" s="2"/>
-      <c r="U30" s="2"/>
-      <c r="V30" s="2"/>
-      <c r="W30" s="2"/>
-      <c r="X30" s="2"/>
-      <c r="Y30" s="2"/>
-      <c r="Z30" s="2"/>
-      <c r="AA30" s="2"/>
-      <c r="AB30" s="2"/>
-      <c r="AC30" s="2"/>
-      <c r="AD30" s="2"/>
-      <c r="AE30" s="2"/>
-      <c r="AF30" s="5"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="6"/>
+      <c r="R28" s="6"/>
+      <c r="S28" s="6"/>
+      <c r="T28" s="6"/>
+      <c r="U28" s="6"/>
+      <c r="V28" s="6"/>
+      <c r="W28" s="6"/>
+      <c r="X28" s="6"/>
+      <c r="Y28" s="6"/>
+      <c r="Z28" s="6"/>
+      <c r="AA28" s="6"/>
+      <c r="AB28" s="6"/>
+      <c r="AC28" s="6"/>
+      <c r="AD28" s="6"/>
+      <c r="AE28" s="6"/>
+      <c r="AF28" s="7"/>
+    </row>
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="31" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="8"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
-      <c r="P31" s="2"/>
-      <c r="Q31" s="2"/>
-      <c r="R31" s="2"/>
-      <c r="S31" s="2"/>
-      <c r="T31" s="2"/>
-      <c r="U31" s="2"/>
-      <c r="V31" s="2"/>
-      <c r="W31" s="2"/>
-      <c r="X31" s="2"/>
-      <c r="Y31" s="2"/>
-      <c r="Z31" s="2"/>
-      <c r="AA31" s="2"/>
-      <c r="AB31" s="2"/>
-      <c r="AC31" s="2"/>
-      <c r="AD31" s="2"/>
-      <c r="AE31" s="2"/>
-      <c r="AF31" s="5"/>
+      <c r="B31" s="9">
+        <v>1</v>
+      </c>
+      <c r="C31" s="9">
+        <f t="shared" ref="C31" si="31">B31+1</f>
+        <v>2</v>
+      </c>
+      <c r="D31" s="9">
+        <f t="shared" ref="D31" si="32">C31+1</f>
+        <v>3</v>
+      </c>
+      <c r="E31" s="9">
+        <f t="shared" ref="E31" si="33">D31+1</f>
+        <v>4</v>
+      </c>
+      <c r="F31" s="9">
+        <f t="shared" ref="F31" si="34">E31+1</f>
+        <v>5</v>
+      </c>
+      <c r="G31" s="9">
+        <f t="shared" ref="G31" si="35">F31+1</f>
+        <v>6</v>
+      </c>
+      <c r="H31" s="9">
+        <f t="shared" ref="H31" si="36">G31+1</f>
+        <v>7</v>
+      </c>
+      <c r="I31" s="9">
+        <f t="shared" ref="I31" si="37">H31+1</f>
+        <v>8</v>
+      </c>
+      <c r="J31" s="9">
+        <f t="shared" ref="J31" si="38">I31+1</f>
+        <v>9</v>
+      </c>
+      <c r="K31" s="9">
+        <f t="shared" ref="K31" si="39">J31+1</f>
+        <v>10</v>
+      </c>
+      <c r="L31" s="9">
+        <f t="shared" ref="L31" si="40">K31+1</f>
+        <v>11</v>
+      </c>
+      <c r="M31" s="9">
+        <f t="shared" ref="M31" si="41">L31+1</f>
+        <v>12</v>
+      </c>
+      <c r="N31" s="9">
+        <f t="shared" ref="N31" si="42">M31+1</f>
+        <v>13</v>
+      </c>
+      <c r="O31" s="9">
+        <f t="shared" ref="O31" si="43">N31+1</f>
+        <v>14</v>
+      </c>
+      <c r="P31" s="9">
+        <f t="shared" ref="P31" si="44">O31+1</f>
+        <v>15</v>
+      </c>
+      <c r="Q31" s="9">
+        <f t="shared" ref="Q31" si="45">P31+1</f>
+        <v>16</v>
+      </c>
+      <c r="R31" s="9">
+        <f t="shared" ref="R31" si="46">Q31+1</f>
+        <v>17</v>
+      </c>
+      <c r="S31" s="9">
+        <f t="shared" ref="S31" si="47">R31+1</f>
+        <v>18</v>
+      </c>
+      <c r="T31" s="9">
+        <f t="shared" ref="T31" si="48">S31+1</f>
+        <v>19</v>
+      </c>
+      <c r="U31" s="9">
+        <f t="shared" ref="U31" si="49">T31+1</f>
+        <v>20</v>
+      </c>
+      <c r="V31" s="9">
+        <f t="shared" ref="V31" si="50">U31+1</f>
+        <v>21</v>
+      </c>
+      <c r="W31" s="9">
+        <f t="shared" ref="W31" si="51">V31+1</f>
+        <v>22</v>
+      </c>
+      <c r="X31" s="9">
+        <f t="shared" ref="X31" si="52">W31+1</f>
+        <v>23</v>
+      </c>
+      <c r="Y31" s="9">
+        <f t="shared" ref="Y31" si="53">X31+1</f>
+        <v>24</v>
+      </c>
+      <c r="Z31" s="9">
+        <f t="shared" ref="Z31" si="54">Y31+1</f>
+        <v>25</v>
+      </c>
+      <c r="AA31" s="9">
+        <f t="shared" ref="AA31" si="55">Z31+1</f>
+        <v>26</v>
+      </c>
+      <c r="AB31" s="9">
+        <f t="shared" ref="AB31" si="56">AA31+1</f>
+        <v>27</v>
+      </c>
+      <c r="AC31" s="9">
+        <f t="shared" ref="AC31" si="57">AB31+1</f>
+        <v>28</v>
+      </c>
+      <c r="AD31" s="9">
+        <f t="shared" ref="AD31" si="58">AC31+1</f>
+        <v>29</v>
+      </c>
+      <c r="AE31" s="9">
+        <f t="shared" ref="AE31" si="59">AD31+1</f>
+        <v>30</v>
+      </c>
+      <c r="AF31" s="9">
+        <f t="shared" ref="AF31" si="60">AE31+1</f>
+        <v>31</v>
+      </c>
     </row>
     <row r="32" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="6"/>
-      <c r="L32" s="6"/>
-      <c r="M32" s="6"/>
-      <c r="N32" s="6"/>
-      <c r="O32" s="6"/>
-      <c r="P32" s="6"/>
-      <c r="Q32" s="6"/>
-      <c r="R32" s="6"/>
-      <c r="S32" s="6"/>
-      <c r="T32" s="6"/>
-      <c r="U32" s="6"/>
-      <c r="V32" s="6"/>
-      <c r="W32" s="6"/>
-      <c r="X32" s="6"/>
-      <c r="Y32" s="6"/>
-      <c r="Z32" s="6"/>
-      <c r="AA32" s="6"/>
-      <c r="AB32" s="6"/>
-      <c r="AC32" s="6"/>
-      <c r="AD32" s="6"/>
-      <c r="AE32" s="6"/>
-      <c r="AF32" s="7"/>
-    </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>19</v>
-      </c>
+      <c r="B32" s="10"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="3"/>
+      <c r="U32" s="3"/>
+      <c r="V32" s="3"/>
+      <c r="W32" s="3"/>
+      <c r="X32" s="3"/>
+      <c r="Y32" s="3"/>
+      <c r="Z32" s="3"/>
+      <c r="AA32" s="3"/>
+      <c r="AB32" s="3"/>
+      <c r="AC32" s="3"/>
+      <c r="AD32" s="3"/>
+      <c r="AE32" s="3"/>
+      <c r="AF32" s="4"/>
+    </row>
+    <row r="33" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="8"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2"/>
+      <c r="V33" s="2"/>
+      <c r="W33" s="2"/>
+      <c r="X33" s="2"/>
+      <c r="Y33" s="2"/>
+      <c r="Z33" s="2"/>
+      <c r="AA33" s="2"/>
+      <c r="AB33" s="2"/>
+      <c r="AC33" s="2"/>
+      <c r="AD33" s="2"/>
+      <c r="AE33" s="2"/>
+      <c r="AF33" s="5"/>
+    </row>
+    <row r="34" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="8"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="2"/>
+      <c r="V34" s="2"/>
+      <c r="W34" s="2"/>
+      <c r="X34" s="2"/>
+      <c r="Y34" s="2"/>
+      <c r="Z34" s="2"/>
+      <c r="AA34" s="2"/>
+      <c r="AB34" s="2"/>
+      <c r="AC34" s="2"/>
+      <c r="AD34" s="2"/>
+      <c r="AE34" s="2"/>
+      <c r="AF34" s="5"/>
     </row>
     <row r="35" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="9">
-        <v>1</v>
-      </c>
-      <c r="C35" s="9">
-        <f t="shared" ref="C35" si="31">B35+1</f>
-        <v>2</v>
-      </c>
-      <c r="D35" s="9">
-        <f t="shared" ref="D35" si="32">C35+1</f>
-        <v>3</v>
-      </c>
-      <c r="E35" s="9">
-        <f t="shared" ref="E35" si="33">D35+1</f>
-        <v>4</v>
-      </c>
-      <c r="F35" s="9">
-        <f t="shared" ref="F35" si="34">E35+1</f>
-        <v>5</v>
-      </c>
-      <c r="G35" s="9">
-        <f t="shared" ref="G35" si="35">F35+1</f>
-        <v>6</v>
-      </c>
-      <c r="H35" s="9">
-        <f t="shared" ref="H35" si="36">G35+1</f>
-        <v>7</v>
-      </c>
-      <c r="I35" s="9">
-        <f t="shared" ref="I35" si="37">H35+1</f>
-        <v>8</v>
-      </c>
-      <c r="J35" s="9">
-        <f t="shared" ref="J35" si="38">I35+1</f>
-        <v>9</v>
-      </c>
-      <c r="K35" s="9">
-        <f t="shared" ref="K35" si="39">J35+1</f>
-        <v>10</v>
-      </c>
-      <c r="L35" s="9">
-        <f t="shared" ref="L35" si="40">K35+1</f>
-        <v>11</v>
-      </c>
-      <c r="M35" s="9">
-        <f t="shared" ref="M35" si="41">L35+1</f>
-        <v>12</v>
-      </c>
-      <c r="N35" s="9">
-        <f t="shared" ref="N35" si="42">M35+1</f>
-        <v>13</v>
-      </c>
-      <c r="O35" s="9">
-        <f t="shared" ref="O35" si="43">N35+1</f>
-        <v>14</v>
-      </c>
-      <c r="P35" s="9">
-        <f t="shared" ref="P35" si="44">O35+1</f>
-        <v>15</v>
-      </c>
-      <c r="Q35" s="9">
-        <f t="shared" ref="Q35" si="45">P35+1</f>
-        <v>16</v>
-      </c>
-      <c r="R35" s="9">
-        <f t="shared" ref="R35" si="46">Q35+1</f>
-        <v>17</v>
-      </c>
-      <c r="S35" s="9">
-        <f t="shared" ref="S35" si="47">R35+1</f>
-        <v>18</v>
-      </c>
-      <c r="T35" s="9">
-        <f t="shared" ref="T35" si="48">S35+1</f>
-        <v>19</v>
-      </c>
-      <c r="U35" s="9">
-        <f t="shared" ref="U35" si="49">T35+1</f>
-        <v>20</v>
-      </c>
-      <c r="V35" s="9">
-        <f t="shared" ref="V35" si="50">U35+1</f>
-        <v>21</v>
-      </c>
-      <c r="W35" s="9">
-        <f t="shared" ref="W35" si="51">V35+1</f>
-        <v>22</v>
-      </c>
-      <c r="X35" s="9">
-        <f t="shared" ref="X35" si="52">W35+1</f>
-        <v>23</v>
-      </c>
-      <c r="Y35" s="9">
-        <f t="shared" ref="Y35" si="53">X35+1</f>
-        <v>24</v>
-      </c>
-      <c r="Z35" s="9">
-        <f t="shared" ref="Z35" si="54">Y35+1</f>
-        <v>25</v>
-      </c>
-      <c r="AA35" s="9">
-        <f t="shared" ref="AA35" si="55">Z35+1</f>
-        <v>26</v>
-      </c>
-      <c r="AB35" s="9">
-        <f t="shared" ref="AB35" si="56">AA35+1</f>
-        <v>27</v>
-      </c>
-      <c r="AC35" s="9">
-        <f t="shared" ref="AC35" si="57">AB35+1</f>
-        <v>28</v>
-      </c>
-      <c r="AD35" s="9">
-        <f t="shared" ref="AD35" si="58">AC35+1</f>
-        <v>29</v>
-      </c>
-      <c r="AE35" s="9">
-        <f t="shared" ref="AE35" si="59">AD35+1</f>
-        <v>30</v>
-      </c>
-      <c r="AF35" s="9">
-        <f t="shared" ref="AF35" si="60">AE35+1</f>
-        <v>31</v>
-      </c>
+      <c r="A35" s="8"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="2"/>
+      <c r="V35" s="2"/>
+      <c r="W35" s="2"/>
+      <c r="X35" s="2"/>
+      <c r="Y35" s="2"/>
+      <c r="Z35" s="2"/>
+      <c r="AA35" s="2"/>
+      <c r="AB35" s="2"/>
+      <c r="AC35" s="2"/>
+      <c r="AD35" s="2"/>
+      <c r="AE35" s="2"/>
+      <c r="AF35" s="5"/>
     </row>
     <row r="36" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="3"/>
-      <c r="N36" s="3"/>
-      <c r="O36" s="3"/>
-      <c r="P36" s="3"/>
-      <c r="Q36" s="3"/>
-      <c r="R36" s="3"/>
-      <c r="S36" s="3"/>
-      <c r="T36" s="3"/>
-      <c r="U36" s="3"/>
-      <c r="V36" s="3"/>
-      <c r="W36" s="3"/>
-      <c r="X36" s="3"/>
-      <c r="Y36" s="3"/>
-      <c r="Z36" s="3"/>
-      <c r="AA36" s="3"/>
-      <c r="AB36" s="3"/>
-      <c r="AC36" s="3"/>
-      <c r="AD36" s="3"/>
-      <c r="AE36" s="3"/>
-      <c r="AF36" s="4"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="2"/>
+      <c r="V36" s="2"/>
+      <c r="W36" s="2"/>
+      <c r="X36" s="2"/>
+      <c r="Y36" s="2"/>
+      <c r="Z36" s="2"/>
+      <c r="AA36" s="2"/>
+      <c r="AB36" s="2"/>
+      <c r="AC36" s="2"/>
+      <c r="AD36" s="2"/>
+      <c r="AE36" s="2"/>
+      <c r="AF36" s="5"/>
     </row>
     <row r="37" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
@@ -2023,173 +2133,139 @@
     </row>
     <row r="39" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
-      <c r="P39" s="2"/>
-      <c r="Q39" s="2"/>
-      <c r="R39" s="2"/>
-      <c r="S39" s="2"/>
-      <c r="T39" s="2"/>
-      <c r="U39" s="2"/>
-      <c r="V39" s="2"/>
-      <c r="W39" s="2"/>
-      <c r="X39" s="2"/>
-      <c r="Y39" s="2"/>
-      <c r="Z39" s="2"/>
-      <c r="AA39" s="2"/>
-      <c r="AB39" s="2"/>
-      <c r="AC39" s="2"/>
-      <c r="AD39" s="2"/>
-      <c r="AE39" s="2"/>
-      <c r="AF39" s="5"/>
-    </row>
-    <row r="40" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="8"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
-      <c r="L40" s="2"/>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
-      <c r="P40" s="2"/>
-      <c r="Q40" s="2"/>
-      <c r="R40" s="2"/>
-      <c r="S40" s="2"/>
-      <c r="T40" s="2"/>
-      <c r="U40" s="2"/>
-      <c r="V40" s="2"/>
-      <c r="W40" s="2"/>
-      <c r="X40" s="2"/>
-      <c r="Y40" s="2"/>
-      <c r="Z40" s="2"/>
-      <c r="AA40" s="2"/>
-      <c r="AB40" s="2"/>
-      <c r="AC40" s="2"/>
-      <c r="AD40" s="2"/>
-      <c r="AE40" s="2"/>
-      <c r="AF40" s="5"/>
-    </row>
-    <row r="41" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="8"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
-      <c r="L41" s="2"/>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
-      <c r="P41" s="2"/>
-      <c r="Q41" s="2"/>
-      <c r="R41" s="2"/>
-      <c r="S41" s="2"/>
-      <c r="T41" s="2"/>
-      <c r="U41" s="2"/>
-      <c r="V41" s="2"/>
-      <c r="W41" s="2"/>
-      <c r="X41" s="2"/>
-      <c r="Y41" s="2"/>
-      <c r="Z41" s="2"/>
-      <c r="AA41" s="2"/>
-      <c r="AB41" s="2"/>
-      <c r="AC41" s="2"/>
-      <c r="AD41" s="2"/>
-      <c r="AE41" s="2"/>
-      <c r="AF41" s="5"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="6"/>
+      <c r="N39" s="6"/>
+      <c r="O39" s="6"/>
+      <c r="P39" s="6"/>
+      <c r="Q39" s="6"/>
+      <c r="R39" s="6"/>
+      <c r="S39" s="6"/>
+      <c r="T39" s="6"/>
+      <c r="U39" s="6"/>
+      <c r="V39" s="6"/>
+      <c r="W39" s="6"/>
+      <c r="X39" s="6"/>
+      <c r="Y39" s="6"/>
+      <c r="Z39" s="6"/>
+      <c r="AA39" s="6"/>
+      <c r="AB39" s="6"/>
+      <c r="AC39" s="6"/>
+      <c r="AD39" s="6"/>
+      <c r="AE39" s="6"/>
+      <c r="AF39" s="7"/>
+    </row>
+    <row r="41" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="42" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="8"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
-      <c r="P42" s="2"/>
-      <c r="Q42" s="2"/>
-      <c r="R42" s="2"/>
-      <c r="S42" s="2"/>
-      <c r="T42" s="2"/>
-      <c r="U42" s="2"/>
-      <c r="V42" s="2"/>
-      <c r="W42" s="2"/>
-      <c r="X42" s="2"/>
-      <c r="Y42" s="2"/>
-      <c r="Z42" s="2"/>
-      <c r="AA42" s="2"/>
-      <c r="AB42" s="2"/>
-      <c r="AC42" s="2"/>
-      <c r="AD42" s="2"/>
-      <c r="AE42" s="2"/>
-      <c r="AF42" s="5"/>
+      <c r="B42" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G42" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H42" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I42" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J42" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K42" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L42" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="M42" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="N42" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="O42" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="P42" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q42" s="19"/>
+      <c r="R42" s="19"/>
+      <c r="S42" s="19"/>
+      <c r="T42" s="19"/>
+      <c r="U42" s="19"/>
+      <c r="V42" s="19"/>
+      <c r="W42" s="19"/>
+      <c r="X42" s="19"/>
+      <c r="Y42" s="19"/>
+      <c r="Z42" s="19"/>
+      <c r="AA42" s="19"/>
+      <c r="AB42" s="19"/>
+      <c r="AC42" s="19"/>
+      <c r="AD42" s="19"/>
+      <c r="AE42" s="19"/>
+      <c r="AF42" s="19"/>
     </row>
     <row r="43" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
-      <c r="B43" s="11"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-      <c r="J43" s="2"/>
-      <c r="K43" s="2"/>
-      <c r="L43" s="2"/>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
-      <c r="P43" s="2"/>
-      <c r="Q43" s="2"/>
-      <c r="R43" s="2"/>
-      <c r="S43" s="2"/>
-      <c r="T43" s="2"/>
-      <c r="U43" s="2"/>
-      <c r="V43" s="2"/>
-      <c r="W43" s="2"/>
-      <c r="X43" s="2"/>
-      <c r="Y43" s="2"/>
-      <c r="Z43" s="2"/>
-      <c r="AA43" s="2"/>
-      <c r="AB43" s="2"/>
-      <c r="AC43" s="2"/>
-      <c r="AD43" s="2"/>
-      <c r="AE43" s="2"/>
-      <c r="AF43" s="5"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="3"/>
+      <c r="O43" s="3"/>
+      <c r="P43" s="4"/>
+      <c r="Q43" s="13"/>
+      <c r="R43" s="13"/>
+      <c r="S43" s="13"/>
+      <c r="T43" s="13"/>
+      <c r="U43" s="13"/>
+      <c r="V43" s="13"/>
+      <c r="W43" s="13"/>
+      <c r="X43" s="13"/>
+      <c r="Y43" s="13"/>
+      <c r="Z43" s="13"/>
+      <c r="AA43" s="13"/>
+      <c r="AB43" s="13"/>
+      <c r="AC43" s="13"/>
+      <c r="AD43" s="13"/>
+      <c r="AE43" s="13"/>
+      <c r="AF43" s="13"/>
     </row>
     <row r="44" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
@@ -2207,57 +2283,245 @@
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
-      <c r="P44" s="2"/>
-      <c r="Q44" s="2"/>
-      <c r="R44" s="2"/>
-      <c r="S44" s="2"/>
-      <c r="T44" s="2"/>
-      <c r="U44" s="2"/>
-      <c r="V44" s="2"/>
-      <c r="W44" s="2"/>
-      <c r="X44" s="2"/>
-      <c r="Y44" s="2"/>
-      <c r="Z44" s="2"/>
-      <c r="AA44" s="2"/>
-      <c r="AB44" s="2"/>
-      <c r="AC44" s="2"/>
-      <c r="AD44" s="2"/>
-      <c r="AE44" s="2"/>
-      <c r="AF44" s="5"/>
+      <c r="P44" s="5"/>
+      <c r="Q44" s="13"/>
+      <c r="R44" s="13"/>
+      <c r="S44" s="13"/>
+      <c r="T44" s="13"/>
+      <c r="U44" s="13"/>
+      <c r="V44" s="13"/>
+      <c r="W44" s="13"/>
+      <c r="X44" s="13"/>
+      <c r="Y44" s="13"/>
+      <c r="Z44" s="13"/>
+      <c r="AA44" s="13"/>
+      <c r="AB44" s="13"/>
+      <c r="AC44" s="13"/>
+      <c r="AD44" s="13"/>
+      <c r="AE44" s="13"/>
+      <c r="AF44" s="13"/>
     </row>
     <row r="45" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
-      <c r="B45" s="12"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6"/>
-      <c r="I45" s="6"/>
-      <c r="J45" s="6"/>
-      <c r="K45" s="6"/>
-      <c r="L45" s="6"/>
-      <c r="M45" s="6"/>
-      <c r="N45" s="6"/>
-      <c r="O45" s="6"/>
-      <c r="P45" s="6"/>
-      <c r="Q45" s="6"/>
-      <c r="R45" s="6"/>
-      <c r="S45" s="6"/>
-      <c r="T45" s="6"/>
-      <c r="U45" s="6"/>
-      <c r="V45" s="6"/>
-      <c r="W45" s="6"/>
-      <c r="X45" s="6"/>
-      <c r="Y45" s="6"/>
-      <c r="Z45" s="6"/>
-      <c r="AA45" s="6"/>
-      <c r="AB45" s="6"/>
-      <c r="AC45" s="6"/>
-      <c r="AD45" s="6"/>
-      <c r="AE45" s="6"/>
-      <c r="AF45" s="7"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
+      <c r="P45" s="5"/>
+      <c r="Q45" s="13"/>
+      <c r="R45" s="13"/>
+      <c r="S45" s="13"/>
+      <c r="T45" s="13"/>
+      <c r="U45" s="13"/>
+      <c r="V45" s="13"/>
+      <c r="W45" s="13"/>
+      <c r="X45" s="13"/>
+      <c r="Y45" s="13"/>
+      <c r="Z45" s="13"/>
+      <c r="AA45" s="13"/>
+      <c r="AB45" s="13"/>
+      <c r="AC45" s="13"/>
+      <c r="AD45" s="13"/>
+      <c r="AE45" s="13"/>
+      <c r="AF45" s="13"/>
+    </row>
+    <row r="46" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="8"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
+      <c r="P46" s="5"/>
+      <c r="Q46" s="13"/>
+      <c r="R46" s="13"/>
+      <c r="S46" s="13"/>
+      <c r="T46" s="13"/>
+      <c r="U46" s="13"/>
+      <c r="V46" s="13"/>
+      <c r="W46" s="13"/>
+      <c r="X46" s="13"/>
+      <c r="Y46" s="13"/>
+      <c r="Z46" s="13"/>
+      <c r="AA46" s="13"/>
+      <c r="AB46" s="13"/>
+      <c r="AC46" s="13"/>
+      <c r="AD46" s="13"/>
+      <c r="AE46" s="13"/>
+      <c r="AF46" s="13"/>
+    </row>
+    <row r="47" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="8"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
+      <c r="P47" s="5"/>
+      <c r="Q47" s="13"/>
+      <c r="R47" s="13"/>
+      <c r="S47" s="13"/>
+      <c r="T47" s="13"/>
+      <c r="U47" s="13"/>
+      <c r="V47" s="13"/>
+      <c r="W47" s="13"/>
+      <c r="X47" s="13"/>
+      <c r="Y47" s="13"/>
+      <c r="Z47" s="13"/>
+      <c r="AA47" s="13"/>
+      <c r="AB47" s="13"/>
+      <c r="AC47" s="13"/>
+      <c r="AD47" s="13"/>
+      <c r="AE47" s="13"/>
+      <c r="AF47" s="13"/>
+    </row>
+    <row r="48" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="8"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
+      <c r="P48" s="5"/>
+      <c r="Q48" s="13"/>
+      <c r="R48" s="13"/>
+      <c r="S48" s="13"/>
+      <c r="T48" s="13"/>
+      <c r="U48" s="13"/>
+      <c r="V48" s="13"/>
+      <c r="W48" s="13"/>
+      <c r="X48" s="13"/>
+      <c r="Y48" s="13"/>
+      <c r="Z48" s="13"/>
+      <c r="AA48" s="13"/>
+      <c r="AB48" s="13"/>
+      <c r="AC48" s="13"/>
+      <c r="AD48" s="13"/>
+      <c r="AE48" s="13"/>
+      <c r="AF48" s="13"/>
+    </row>
+    <row r="49" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="8"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
+      <c r="P49" s="5"/>
+      <c r="Q49" s="13"/>
+      <c r="R49" s="13"/>
+      <c r="S49" s="13"/>
+      <c r="T49" s="13"/>
+      <c r="U49" s="13"/>
+      <c r="V49" s="13"/>
+      <c r="W49" s="13"/>
+      <c r="X49" s="13"/>
+      <c r="Y49" s="13"/>
+      <c r="Z49" s="13"/>
+      <c r="AA49" s="13"/>
+      <c r="AB49" s="13"/>
+      <c r="AC49" s="13"/>
+      <c r="AD49" s="13"/>
+      <c r="AE49" s="13"/>
+      <c r="AF49" s="13"/>
+    </row>
+    <row r="50" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="8"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
+      <c r="I50" s="6"/>
+      <c r="J50" s="6"/>
+      <c r="K50" s="6"/>
+      <c r="L50" s="6"/>
+      <c r="M50" s="6"/>
+      <c r="N50" s="6"/>
+      <c r="O50" s="6"/>
+      <c r="P50" s="7"/>
+      <c r="Q50" s="13"/>
+      <c r="R50" s="13"/>
+      <c r="S50" s="13"/>
+      <c r="T50" s="13"/>
+      <c r="U50" s="13"/>
+      <c r="V50" s="13"/>
+      <c r="W50" s="13"/>
+      <c r="X50" s="13"/>
+      <c r="Y50" s="13"/>
+      <c r="Z50" s="13"/>
+      <c r="AA50" s="13"/>
+      <c r="AB50" s="13"/>
+      <c r="AC50" s="13"/>
+      <c r="AD50" s="13"/>
+      <c r="AE50" s="13"/>
+      <c r="AF50" s="13"/>
+    </row>
+    <row r="51" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="Q51" s="13"/>
+      <c r="R51" s="13"/>
+      <c r="S51" s="13"/>
+      <c r="T51" s="13"/>
+      <c r="U51" s="13"/>
+      <c r="V51" s="13"/>
+      <c r="W51" s="13"/>
+      <c r="X51" s="13"/>
+      <c r="Y51" s="13"/>
+      <c r="Z51" s="13"/>
+      <c r="AA51" s="13"/>
+      <c r="AB51" s="13"/>
+      <c r="AC51" s="13"/>
+      <c r="AD51" s="13"/>
+      <c r="AE51" s="13"/>
+      <c r="AF51" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2290,20 +2554,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -2456,10 +2720,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54036C81-0F91-4875-B932-01D75F2B647D}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2470,12 +2737,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="I1" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="I1" s="16" t="s">
         <v>2</v>
       </c>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -2742,7 +3021,12 @@
       <c r="O7" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="I1:O1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="88" fitToHeight="0" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2765,20 +3049,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -2847,18 +3131,539 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6355EDF-BF68-42B1-AE16-80AE37E051CB}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="29" t="s">
         <v>10</v>
       </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="21"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="23"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="24"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="25"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="24"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="25"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="24"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="25"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="24"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="25"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="24"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="25"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="24"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="25"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="24"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="25"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="24"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="25"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="24"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="25"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="24"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="25"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="24"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="25"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="24"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="25"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="24"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="25"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="24"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="25"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="24"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="25"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="24"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="25"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="24"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="25"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="24"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="25"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="24"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="25"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="24"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="25"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="24"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="25"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="24"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="25"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="24"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="25"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="24"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="25"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="24"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="25"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="24"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="25"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="24"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="25"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="24"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="25"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="24"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="25"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="24"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="25"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="24"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="25"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="24"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="25"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="24"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="25"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="24"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="25"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="24"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="25"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="24"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="25"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="24"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="25"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="24"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="25"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="24"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="25"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="24"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="25"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="24"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="25"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="24"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="13"/>
+      <c r="I44" s="25"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="24"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="13"/>
+      <c r="I45" s="25"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="24"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="13"/>
+      <c r="I46" s="25"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="26"/>
+      <c r="B47" s="27"/>
+      <c r="C47" s="27"/>
+      <c r="D47" s="27"/>
+      <c r="E47" s="27"/>
+      <c r="F47" s="27"/>
+      <c r="G47" s="27"/>
+      <c r="H47" s="27"/>
+      <c r="I47" s="28"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:I1"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
--- a/pesantren/bagian bahasa/lembar evaluasi.xlsx
+++ b/pesantren/bagian bahasa/lembar evaluasi.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20402"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A92189E4-C83E-47A3-A25D-BC5EA4400147}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F51AE4B3-E4AB-41EE-A975-6003A41195B5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ringkasan" sheetId="1" r:id="rId1"/>
@@ -56,9 +56,6 @@
     <t>Program Mufrodat Wajib</t>
   </si>
   <si>
-    <t>Pelanggar (Nama + Centang Jika Sudah Setor 25 Mufrodat)</t>
-  </si>
-  <si>
     <t>Ringkasan</t>
   </si>
   <si>
@@ -102,6 +99,9 @@
   </si>
   <si>
     <t>Pelanggaran Wajib Bahasa</t>
+  </si>
+  <si>
+    <t>Pelanggar (Nama + Centang Jika Sudah Setor Hapalan 25 Mufrodat)</t>
   </si>
 </sst>
 </file>
@@ -433,15 +433,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -456,6 +447,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -744,8 +744,8 @@
   </sheetPr>
   <dimension ref="A1:AF51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -755,40 +755,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
-      <c r="X1" s="16"/>
-      <c r="Y1" s="16"/>
-      <c r="Z1" s="16"/>
-      <c r="AA1" s="16"/>
-      <c r="AB1" s="16"/>
-      <c r="AC1" s="16"/>
-      <c r="AD1" s="16"/>
-      <c r="AE1" s="16"/>
-      <c r="AF1" s="16"/>
+      <c r="A1" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="26"/>
+      <c r="V1" s="26"/>
+      <c r="W1" s="26"/>
+      <c r="X1" s="26"/>
+      <c r="Y1" s="26"/>
+      <c r="Z1" s="26"/>
+      <c r="AA1" s="26"/>
+      <c r="AB1" s="26"/>
+      <c r="AC1" s="26"/>
+      <c r="AD1" s="26"/>
+      <c r="AE1" s="26"/>
+      <c r="AF1" s="26"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="15"/>
@@ -836,12 +836,12 @@
       <c r="G3" s="14"/>
       <c r="H3" s="14"/>
       <c r="I3" s="14"/>
-      <c r="AC3" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="AD3" s="17"/>
-      <c r="AE3" s="17"/>
-      <c r="AF3" s="17"/>
+      <c r="AC3" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD3" s="27"/>
+      <c r="AE3" s="27"/>
+      <c r="AF3" s="27"/>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B4" s="13"/>
@@ -854,76 +854,76 @@
       <c r="I4" s="13"/>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="16"/>
-      <c r="S5" s="16"/>
-      <c r="T5" s="16"/>
-      <c r="U5" s="16"/>
-      <c r="V5" s="16"/>
-      <c r="W5" s="16"/>
-      <c r="X5" s="16"/>
-      <c r="Y5" s="16"/>
-      <c r="Z5" s="16"/>
-      <c r="AA5" s="16"/>
-      <c r="AB5" s="16"/>
-      <c r="AC5" s="16"/>
-      <c r="AD5" s="16"/>
-      <c r="AE5" s="16"/>
-      <c r="AF5" s="16"/>
+      <c r="A5" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="26"/>
+      <c r="S5" s="26"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="26"/>
+      <c r="V5" s="26"/>
+      <c r="W5" s="26"/>
+      <c r="X5" s="26"/>
+      <c r="Y5" s="26"/>
+      <c r="Z5" s="26"/>
+      <c r="AA5" s="26"/>
+      <c r="AB5" s="26"/>
+      <c r="AC5" s="26"/>
+      <c r="AD5" s="26"/>
+      <c r="AE5" s="26"/>
+      <c r="AF5" s="26"/>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="18"/>
-      <c r="S6" s="18"/>
-      <c r="T6" s="18"/>
-      <c r="U6" s="18"/>
-      <c r="V6" s="18"/>
-      <c r="W6" s="18"/>
-      <c r="X6" s="18"/>
-      <c r="Y6" s="18"/>
-      <c r="Z6" s="18"/>
-      <c r="AA6" s="18"/>
-      <c r="AB6" s="18"/>
-      <c r="AC6" s="18"/>
-      <c r="AD6" s="18"/>
-      <c r="AE6" s="18"/>
-      <c r="AF6" s="18"/>
+      <c r="A6" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="28"/>
+      <c r="P6" s="28"/>
+      <c r="Q6" s="28"/>
+      <c r="R6" s="28"/>
+      <c r="S6" s="28"/>
+      <c r="T6" s="28"/>
+      <c r="U6" s="28"/>
+      <c r="V6" s="28"/>
+      <c r="W6" s="28"/>
+      <c r="X6" s="28"/>
+      <c r="Y6" s="28"/>
+      <c r="Z6" s="28"/>
+      <c r="AA6" s="28"/>
+      <c r="AB6" s="28"/>
+      <c r="AC6" s="28"/>
+      <c r="AD6" s="28"/>
+      <c r="AE6" s="28"/>
+      <c r="AF6" s="28"/>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
@@ -961,7 +961,7 @@
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.25">
@@ -1363,7 +1363,7 @@
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1765,7 +1765,7 @@
     </row>
     <row r="30" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2167,71 +2167,71 @@
     </row>
     <row r="41" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C42" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C42" s="9" t="s">
-        <v>22</v>
-      </c>
       <c r="D42" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E42" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E42" s="9" t="s">
+      <c r="F42" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F42" s="9" t="s">
-        <v>22</v>
-      </c>
       <c r="G42" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H42" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="H42" s="9" t="s">
+      <c r="I42" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="I42" s="9" t="s">
-        <v>22</v>
-      </c>
       <c r="J42" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K42" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="K42" s="9" t="s">
+      <c r="L42" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="L42" s="9" t="s">
-        <v>22</v>
-      </c>
       <c r="M42" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="N42" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="N42" s="9" t="s">
+      <c r="O42" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="O42" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="P42" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q42" s="19"/>
-      <c r="R42" s="19"/>
-      <c r="S42" s="19"/>
-      <c r="T42" s="19"/>
-      <c r="U42" s="19"/>
-      <c r="V42" s="19"/>
-      <c r="W42" s="19"/>
-      <c r="X42" s="19"/>
-      <c r="Y42" s="19"/>
-      <c r="Z42" s="19"/>
-      <c r="AA42" s="19"/>
-      <c r="AB42" s="19"/>
-      <c r="AC42" s="19"/>
-      <c r="AD42" s="19"/>
-      <c r="AE42" s="19"/>
-      <c r="AF42" s="19"/>
+      <c r="P42" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q42" s="16"/>
+      <c r="R42" s="16"/>
+      <c r="S42" s="16"/>
+      <c r="T42" s="16"/>
+      <c r="U42" s="16"/>
+      <c r="V42" s="16"/>
+      <c r="W42" s="16"/>
+      <c r="X42" s="16"/>
+      <c r="Y42" s="16"/>
+      <c r="Z42" s="16"/>
+      <c r="AA42" s="16"/>
+      <c r="AB42" s="16"/>
+      <c r="AC42" s="16"/>
+      <c r="AD42" s="16"/>
+      <c r="AE42" s="16"/>
+      <c r="AF42" s="16"/>
     </row>
     <row r="43" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
@@ -2542,8 +2542,8 @@
   </sheetPr>
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2554,13 +2554,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="15"/>
@@ -2571,7 +2571,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="224.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2737,24 +2737,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="I1" s="16" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="I1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -3049,13 +3049,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="15"/>
@@ -3071,53 +3071,53 @@
     </row>
     <row r="4" spans="1:5" ht="224.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="224.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="224.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -3133,7 +3133,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6355EDF-BF68-42B1-AE16-80AE37E051CB}">
   <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
@@ -3141,7 +3141,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" s="29"/>
       <c r="C1" s="29"/>
@@ -3153,18 +3153,18 @@
       <c r="I1" s="29"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="21"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="23"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="20"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="24"/>
+      <c r="A3" s="21"/>
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
       <c r="D3" s="13"/>
@@ -3172,10 +3172,10 @@
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
-      <c r="I3" s="25"/>
+      <c r="I3" s="22"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="24"/>
+      <c r="A4" s="21"/>
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
       <c r="D4" s="13"/>
@@ -3183,10 +3183,10 @@
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
-      <c r="I4" s="25"/>
+      <c r="I4" s="22"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="24"/>
+      <c r="A5" s="21"/>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
@@ -3194,10 +3194,10 @@
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
       <c r="H5" s="13"/>
-      <c r="I5" s="25"/>
+      <c r="I5" s="22"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="24"/>
+      <c r="A6" s="21"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
@@ -3205,10 +3205,10 @@
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
       <c r="H6" s="13"/>
-      <c r="I6" s="25"/>
+      <c r="I6" s="22"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="24"/>
+      <c r="A7" s="21"/>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
@@ -3216,10 +3216,10 @@
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="25"/>
+      <c r="I7" s="22"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="24"/>
+      <c r="A8" s="21"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
@@ -3227,10 +3227,10 @@
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
-      <c r="I8" s="25"/>
+      <c r="I8" s="22"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="24"/>
+      <c r="A9" s="21"/>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
@@ -3238,10 +3238,10 @@
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
-      <c r="I9" s="25"/>
+      <c r="I9" s="22"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="24"/>
+      <c r="A10" s="21"/>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
@@ -3249,10 +3249,10 @@
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
-      <c r="I10" s="25"/>
+      <c r="I10" s="22"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="24"/>
+      <c r="A11" s="21"/>
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -3260,10 +3260,10 @@
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
-      <c r="I11" s="25"/>
+      <c r="I11" s="22"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="24"/>
+      <c r="A12" s="21"/>
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
@@ -3271,10 +3271,10 @@
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
-      <c r="I12" s="25"/>
+      <c r="I12" s="22"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="24"/>
+      <c r="A13" s="21"/>
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
@@ -3282,10 +3282,10 @@
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
-      <c r="I13" s="25"/>
+      <c r="I13" s="22"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="24"/>
+      <c r="A14" s="21"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
@@ -3293,10 +3293,10 @@
       <c r="F14" s="13"/>
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
-      <c r="I14" s="25"/>
+      <c r="I14" s="22"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="24"/>
+      <c r="A15" s="21"/>
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
@@ -3304,10 +3304,10 @@
       <c r="F15" s="13"/>
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
-      <c r="I15" s="25"/>
+      <c r="I15" s="22"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="24"/>
+      <c r="A16" s="21"/>
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
       <c r="D16" s="13"/>
@@ -3315,10 +3315,10 @@
       <c r="F16" s="13"/>
       <c r="G16" s="13"/>
       <c r="H16" s="13"/>
-      <c r="I16" s="25"/>
+      <c r="I16" s="22"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="24"/>
+      <c r="A17" s="21"/>
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
@@ -3326,10 +3326,10 @@
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
-      <c r="I17" s="25"/>
+      <c r="I17" s="22"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="24"/>
+      <c r="A18" s="21"/>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
@@ -3337,10 +3337,10 @@
       <c r="F18" s="13"/>
       <c r="G18" s="13"/>
       <c r="H18" s="13"/>
-      <c r="I18" s="25"/>
+      <c r="I18" s="22"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="24"/>
+      <c r="A19" s="21"/>
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>
       <c r="D19" s="13"/>
@@ -3348,10 +3348,10 @@
       <c r="F19" s="13"/>
       <c r="G19" s="13"/>
       <c r="H19" s="13"/>
-      <c r="I19" s="25"/>
+      <c r="I19" s="22"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="24"/>
+      <c r="A20" s="21"/>
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
@@ -3359,10 +3359,10 @@
       <c r="F20" s="13"/>
       <c r="G20" s="13"/>
       <c r="H20" s="13"/>
-      <c r="I20" s="25"/>
+      <c r="I20" s="22"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="24"/>
+      <c r="A21" s="21"/>
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
@@ -3370,10 +3370,10 @@
       <c r="F21" s="13"/>
       <c r="G21" s="13"/>
       <c r="H21" s="13"/>
-      <c r="I21" s="25"/>
+      <c r="I21" s="22"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="24"/>
+      <c r="A22" s="21"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
       <c r="D22" s="13"/>
@@ -3381,10 +3381,10 @@
       <c r="F22" s="13"/>
       <c r="G22" s="13"/>
       <c r="H22" s="13"/>
-      <c r="I22" s="25"/>
+      <c r="I22" s="22"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="24"/>
+      <c r="A23" s="21"/>
       <c r="B23" s="13"/>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
@@ -3392,10 +3392,10 @@
       <c r="F23" s="13"/>
       <c r="G23" s="13"/>
       <c r="H23" s="13"/>
-      <c r="I23" s="25"/>
+      <c r="I23" s="22"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="24"/>
+      <c r="A24" s="21"/>
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
       <c r="D24" s="13"/>
@@ -3403,10 +3403,10 @@
       <c r="F24" s="13"/>
       <c r="G24" s="13"/>
       <c r="H24" s="13"/>
-      <c r="I24" s="25"/>
+      <c r="I24" s="22"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="24"/>
+      <c r="A25" s="21"/>
       <c r="B25" s="13"/>
       <c r="C25" s="13"/>
       <c r="D25" s="13"/>
@@ -3414,10 +3414,10 @@
       <c r="F25" s="13"/>
       <c r="G25" s="13"/>
       <c r="H25" s="13"/>
-      <c r="I25" s="25"/>
+      <c r="I25" s="22"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="24"/>
+      <c r="A26" s="21"/>
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
       <c r="D26" s="13"/>
@@ -3425,10 +3425,10 @@
       <c r="F26" s="13"/>
       <c r="G26" s="13"/>
       <c r="H26" s="13"/>
-      <c r="I26" s="25"/>
+      <c r="I26" s="22"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="24"/>
+      <c r="A27" s="21"/>
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
       <c r="D27" s="13"/>
@@ -3436,10 +3436,10 @@
       <c r="F27" s="13"/>
       <c r="G27" s="13"/>
       <c r="H27" s="13"/>
-      <c r="I27" s="25"/>
+      <c r="I27" s="22"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="24"/>
+      <c r="A28" s="21"/>
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
       <c r="D28" s="13"/>
@@ -3447,10 +3447,10 @@
       <c r="F28" s="13"/>
       <c r="G28" s="13"/>
       <c r="H28" s="13"/>
-      <c r="I28" s="25"/>
+      <c r="I28" s="22"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="24"/>
+      <c r="A29" s="21"/>
       <c r="B29" s="13"/>
       <c r="C29" s="13"/>
       <c r="D29" s="13"/>
@@ -3458,10 +3458,10 @@
       <c r="F29" s="13"/>
       <c r="G29" s="13"/>
       <c r="H29" s="13"/>
-      <c r="I29" s="25"/>
+      <c r="I29" s="22"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="24"/>
+      <c r="A30" s="21"/>
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
       <c r="D30" s="13"/>
@@ -3469,10 +3469,10 @@
       <c r="F30" s="13"/>
       <c r="G30" s="13"/>
       <c r="H30" s="13"/>
-      <c r="I30" s="25"/>
+      <c r="I30" s="22"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="24"/>
+      <c r="A31" s="21"/>
       <c r="B31" s="13"/>
       <c r="C31" s="13"/>
       <c r="D31" s="13"/>
@@ -3480,10 +3480,10 @@
       <c r="F31" s="13"/>
       <c r="G31" s="13"/>
       <c r="H31" s="13"/>
-      <c r="I31" s="25"/>
+      <c r="I31" s="22"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="24"/>
+      <c r="A32" s="21"/>
       <c r="B32" s="13"/>
       <c r="C32" s="13"/>
       <c r="D32" s="13"/>
@@ -3491,10 +3491,10 @@
       <c r="F32" s="13"/>
       <c r="G32" s="13"/>
       <c r="H32" s="13"/>
-      <c r="I32" s="25"/>
+      <c r="I32" s="22"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="24"/>
+      <c r="A33" s="21"/>
       <c r="B33" s="13"/>
       <c r="C33" s="13"/>
       <c r="D33" s="13"/>
@@ -3502,10 +3502,10 @@
       <c r="F33" s="13"/>
       <c r="G33" s="13"/>
       <c r="H33" s="13"/>
-      <c r="I33" s="25"/>
+      <c r="I33" s="22"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="24"/>
+      <c r="A34" s="21"/>
       <c r="B34" s="13"/>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
@@ -3513,10 +3513,10 @@
       <c r="F34" s="13"/>
       <c r="G34" s="13"/>
       <c r="H34" s="13"/>
-      <c r="I34" s="25"/>
+      <c r="I34" s="22"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="24"/>
+      <c r="A35" s="21"/>
       <c r="B35" s="13"/>
       <c r="C35" s="13"/>
       <c r="D35" s="13"/>
@@ -3524,10 +3524,10 @@
       <c r="F35" s="13"/>
       <c r="G35" s="13"/>
       <c r="H35" s="13"/>
-      <c r="I35" s="25"/>
+      <c r="I35" s="22"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="24"/>
+      <c r="A36" s="21"/>
       <c r="B36" s="13"/>
       <c r="C36" s="13"/>
       <c r="D36" s="13"/>
@@ -3535,10 +3535,10 @@
       <c r="F36" s="13"/>
       <c r="G36" s="13"/>
       <c r="H36" s="13"/>
-      <c r="I36" s="25"/>
+      <c r="I36" s="22"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="24"/>
+      <c r="A37" s="21"/>
       <c r="B37" s="13"/>
       <c r="C37" s="13"/>
       <c r="D37" s="13"/>
@@ -3546,10 +3546,10 @@
       <c r="F37" s="13"/>
       <c r="G37" s="13"/>
       <c r="H37" s="13"/>
-      <c r="I37" s="25"/>
+      <c r="I37" s="22"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="24"/>
+      <c r="A38" s="21"/>
       <c r="B38" s="13"/>
       <c r="C38" s="13"/>
       <c r="D38" s="13"/>
@@ -3557,10 +3557,10 @@
       <c r="F38" s="13"/>
       <c r="G38" s="13"/>
       <c r="H38" s="13"/>
-      <c r="I38" s="25"/>
+      <c r="I38" s="22"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="24"/>
+      <c r="A39" s="21"/>
       <c r="B39" s="13"/>
       <c r="C39" s="13"/>
       <c r="D39" s="13"/>
@@ -3568,10 +3568,10 @@
       <c r="F39" s="13"/>
       <c r="G39" s="13"/>
       <c r="H39" s="13"/>
-      <c r="I39" s="25"/>
+      <c r="I39" s="22"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="24"/>
+      <c r="A40" s="21"/>
       <c r="B40" s="13"/>
       <c r="C40" s="13"/>
       <c r="D40" s="13"/>
@@ -3579,10 +3579,10 @@
       <c r="F40" s="13"/>
       <c r="G40" s="13"/>
       <c r="H40" s="13"/>
-      <c r="I40" s="25"/>
+      <c r="I40" s="22"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="24"/>
+      <c r="A41" s="21"/>
       <c r="B41" s="13"/>
       <c r="C41" s="13"/>
       <c r="D41" s="13"/>
@@ -3590,10 +3590,10 @@
       <c r="F41" s="13"/>
       <c r="G41" s="13"/>
       <c r="H41" s="13"/>
-      <c r="I41" s="25"/>
+      <c r="I41" s="22"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="24"/>
+      <c r="A42" s="21"/>
       <c r="B42" s="13"/>
       <c r="C42" s="13"/>
       <c r="D42" s="13"/>
@@ -3601,10 +3601,10 @@
       <c r="F42" s="13"/>
       <c r="G42" s="13"/>
       <c r="H42" s="13"/>
-      <c r="I42" s="25"/>
+      <c r="I42" s="22"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="24"/>
+      <c r="A43" s="21"/>
       <c r="B43" s="13"/>
       <c r="C43" s="13"/>
       <c r="D43" s="13"/>
@@ -3612,10 +3612,10 @@
       <c r="F43" s="13"/>
       <c r="G43" s="13"/>
       <c r="H43" s="13"/>
-      <c r="I43" s="25"/>
+      <c r="I43" s="22"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="24"/>
+      <c r="A44" s="21"/>
       <c r="B44" s="13"/>
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
@@ -3623,10 +3623,10 @@
       <c r="F44" s="13"/>
       <c r="G44" s="13"/>
       <c r="H44" s="13"/>
-      <c r="I44" s="25"/>
+      <c r="I44" s="22"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="24"/>
+      <c r="A45" s="21"/>
       <c r="B45" s="13"/>
       <c r="C45" s="13"/>
       <c r="D45" s="13"/>
@@ -3634,10 +3634,10 @@
       <c r="F45" s="13"/>
       <c r="G45" s="13"/>
       <c r="H45" s="13"/>
-      <c r="I45" s="25"/>
+      <c r="I45" s="22"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="24"/>
+      <c r="A46" s="21"/>
       <c r="B46" s="13"/>
       <c r="C46" s="13"/>
       <c r="D46" s="13"/>
@@ -3645,18 +3645,18 @@
       <c r="F46" s="13"/>
       <c r="G46" s="13"/>
       <c r="H46" s="13"/>
-      <c r="I46" s="25"/>
+      <c r="I46" s="22"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="26"/>
-      <c r="B47" s="27"/>
-      <c r="C47" s="27"/>
-      <c r="D47" s="27"/>
-      <c r="E47" s="27"/>
-      <c r="F47" s="27"/>
-      <c r="G47" s="27"/>
-      <c r="H47" s="27"/>
-      <c r="I47" s="28"/>
+      <c r="A47" s="23"/>
+      <c r="B47" s="24"/>
+      <c r="C47" s="24"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="24"/>
+      <c r="F47" s="24"/>
+      <c r="G47" s="24"/>
+      <c r="H47" s="24"/>
+      <c r="I47" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="1">
